--- a/assets/data/ActivityProperties.xlsx
+++ b/assets/data/ActivityProperties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fariakn\Research\website\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62CB8B34-3113-45C2-944A-BBF0E48A63A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8672CEEA-E858-4302-89EA-B3D1CE2C4EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{5A6A9480-72B9-4CEA-854E-7F7DAE7A1FF6}"/>
+    <workbookView xWindow="3375" yWindow="3375" windowWidth="14480" windowHeight="8230" xr2:uid="{5A6A9480-72B9-4CEA-854E-7F7DAE7A1FF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Breakdown" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="191">
   <si>
     <t>App</t>
   </si>
@@ -462,9 +462,6 @@
     <t>org.wordpress.android.ui.accounts.LoginMagicLinkInterceptActivity</t>
   </si>
   <si>
-    <t>string extras</t>
-  </si>
-  <si>
     <t>org.wordpress.android.ui.AddQuickPressShortcutActivity</t>
   </si>
   <si>
@@ -604,6 +601,12 @@
   </si>
   <si>
     <t>Object</t>
+  </si>
+  <si>
+    <t>Guards Data Types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- int sdk version, installed apps as list of strings, </t>
   </si>
 </sst>
 </file>
@@ -798,7 +801,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -861,25 +864,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -888,13 +914,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -912,40 +962,109 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1279,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6182992C-E3DA-42E5-82C3-6D3E3F6303A0}">
   <dimension ref="A1:AI231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="A150" sqref="A150:XFD150"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1302,49 +1421,49 @@
     <col min="21" max="21" width="14.453125" style="15" customWidth="1"/>
     <col min="22" max="22" width="11.86328125" style="15" customWidth="1"/>
     <col min="23" max="30" width="8.7265625" style="15"/>
-    <col min="31" max="31" width="0" style="15" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="11.6796875" style="15" hidden="1" customWidth="1"/>
     <col min="32" max="16384" width="8.7265625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
       <c r="AE1"/>
       <c r="AF1"/>
       <c r="AG1"/>
@@ -1352,74 +1471,79 @@
       <c r="AI1"/>
     </row>
     <row r="2" spans="1:35" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="32" t="s">
+      <c r="H2" s="41"/>
+      <c r="I2" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="32" t="s">
+      <c r="M2" s="41"/>
+      <c r="N2" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="M2" s="32"/>
-      <c r="N2" s="35" t="s">
+      <c r="O2" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="27" t="s">
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="36" t="s">
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="40"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="57"/>
       <c r="AE2" s="12"/>
+      <c r="AF2" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="33"/>
     </row>
     <row r="3" spans="1:35" ht="45" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="43"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="44"/>
       <c r="G3" s="2" t="s">
         <v>6</v>
@@ -1427,21 +1551,21 @@
       <c r="H3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
       <c r="L3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="46"/>
+      <c r="N3" s="51"/>
       <c r="O3" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="P3" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>185</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>13</v>
@@ -1450,7 +1574,7 @@
         <v>14</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T3" s="4" t="s">
         <v>15</v>
@@ -1465,268 +1589,301 @@
         <v>18</v>
       </c>
       <c r="X3" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y3" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Z3" s="10" t="s">
         <v>188</v>
-      </c>
-      <c r="Z3" s="10" t="s">
-        <v>189</v>
       </c>
       <c r="AA3" s="11" t="s">
         <v>19</v>
       </c>
       <c r="AB3" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC3" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AD3" s="10" t="s">
         <v>188</v>
-      </c>
-      <c r="AD3" s="10" t="s">
-        <v>189</v>
       </c>
       <c r="AE3" s="12" t="s">
         <v>20</v>
       </c>
+      <c r="AF3" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG3" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH3" s="30" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A4" s="13"/>
-      <c r="B4" s="47">
+      <c r="B4" s="24">
         <f>COUNTA(B6:B156)</f>
         <v>151</v>
       </c>
-      <c r="C4" s="47">
-        <f xml:space="preserve"> COUNTA(C6:C160)</f>
+      <c r="C4" s="24">
+        <f t="shared" ref="C4:M4" si="0" xml:space="preserve"> COUNTA(C6:C160)</f>
         <v>7</v>
       </c>
-      <c r="D4" s="47">
-        <f xml:space="preserve"> COUNTA(D6:D160)</f>
+      <c r="D4" s="24">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E4" s="47">
-        <f xml:space="preserve"> COUNTA(E6:E160)</f>
+      <c r="E4" s="24">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="F4" s="47">
-        <f xml:space="preserve"> COUNTA(F6:F160)</f>
+      <c r="F4" s="24">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G4" s="47">
-        <f xml:space="preserve"> COUNTA(G6:G160)</f>
+      <c r="G4" s="24">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="H4" s="47">
-        <f xml:space="preserve"> COUNTA(H6:H160)</f>
+      <c r="H4" s="24">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="I4" s="47">
-        <f xml:space="preserve"> COUNTA(I6:I160)</f>
+      <c r="I4" s="24">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J4" s="47">
-        <f xml:space="preserve"> COUNTA(J6:J160)</f>
+      <c r="J4" s="24">
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="K4" s="47">
-        <f xml:space="preserve"> COUNTA(K6:K160)</f>
+      <c r="K4" s="24">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="L4" s="47">
-        <f xml:space="preserve"> COUNTA(L6:L160)</f>
+      <c r="L4" s="24">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="M4" s="47">
-        <f xml:space="preserve"> COUNTA(M6:M160)</f>
+      <c r="M4" s="24">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="N4" s="47">
+      <c r="N4" s="24">
         <f>COUNTIF(N6:N160, "x")</f>
         <v>26</v>
       </c>
-      <c r="O4" s="47">
+      <c r="O4" s="24">
         <f xml:space="preserve"> COUNTA(O6:O160)</f>
         <v>84</v>
       </c>
-      <c r="P4" s="47">
-        <f t="shared" ref="P4:Q4" si="0" xml:space="preserve"> COUNTA(P6:P160)</f>
+      <c r="P4" s="24">
+        <f t="shared" ref="P4:Q4" si="1" xml:space="preserve"> COUNTA(P6:P160)</f>
         <v>11</v>
       </c>
-      <c r="Q4" s="47">
-        <f t="shared" si="0"/>
+      <c r="Q4" s="24">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="R4" s="47">
+      <c r="R4" s="24">
         <f xml:space="preserve"> COUNTIF(R6:R160, "=x")</f>
         <v>52</v>
       </c>
-      <c r="S4" s="47">
+      <c r="S4" s="24">
         <f xml:space="preserve"> COUNTA(S6:S160)</f>
         <v>73</v>
       </c>
-      <c r="T4" s="47">
-        <f t="shared" ref="T4:V4" si="1" xml:space="preserve"> COUNTA(T6:T160)</f>
+      <c r="T4" s="24">
+        <f t="shared" ref="T4:V4" si="2" xml:space="preserve"> COUNTA(T6:T160)</f>
         <v>20</v>
       </c>
-      <c r="U4" s="47">
-        <f t="shared" si="1"/>
+      <c r="U4" s="24">
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="V4" s="47">
-        <f t="shared" si="1"/>
+      <c r="V4" s="24">
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="W4" s="47">
+      <c r="W4" s="24">
         <f xml:space="preserve"> COUNTA(W6:W160)</f>
-        <v>94</v>
-      </c>
-      <c r="X4" s="47">
-        <f t="shared" ref="X4:AE4" si="2" xml:space="preserve"> COUNTA(X6:X160)</f>
-        <v>80</v>
-      </c>
-      <c r="Y4" s="47">
+        <v>92</v>
+      </c>
+      <c r="X4" s="24">
+        <f t="shared" ref="X4:AH4" si="3" xml:space="preserve"> COUNTA(X6:X160)</f>
+        <v>79</v>
+      </c>
+      <c r="Y4" s="24">
         <f xml:space="preserve"> COUNTIF(Y6:Y160, "=x")</f>
+        <v>44</v>
+      </c>
+      <c r="Z4" s="24">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="AA4" s="24">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="AB4" s="24">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="AC4" s="24">
+        <f xml:space="preserve"> COUNTIF(AC6:AC160, "=x")</f>
+        <v>14</v>
+      </c>
+      <c r="AD4" s="24">
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="Z4" s="47">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="AA4" s="47">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="AB4" s="47">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="AC4" s="47">
-        <f xml:space="preserve"> COUNTIF(AC6:AC160, "=x")</f>
-        <v>7</v>
-      </c>
-      <c r="AD4" s="47">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="AE4" s="47">
-        <f t="shared" si="2"/>
-        <v>37</v>
+      <c r="AE4" s="24">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="AF4" s="24">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="AG4" s="24">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="AH4" s="24">
+        <f t="shared" si="3"/>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A5" s="13"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47">
-        <f t="shared" ref="C5:AE5" si="3" xml:space="preserve"> 100 * C4/$B4</f>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24">
+        <f t="shared" ref="C5:AH5" si="4" xml:space="preserve"> 100 * C4/$B4</f>
         <v>4.6357615894039732</v>
       </c>
-      <c r="D5" s="47">
-        <f t="shared" si="3"/>
+      <c r="D5" s="24">
+        <f t="shared" si="4"/>
         <v>6.6225165562913908</v>
       </c>
-      <c r="E5" s="47">
-        <f t="shared" si="3"/>
+      <c r="E5" s="24">
+        <f t="shared" si="4"/>
         <v>15.894039735099337</v>
       </c>
-      <c r="F5" s="47">
-        <f t="shared" si="3"/>
+      <c r="F5" s="24">
+        <f t="shared" si="4"/>
         <v>3.3112582781456954</v>
       </c>
-      <c r="G5" s="47">
-        <f t="shared" si="3"/>
+      <c r="G5" s="24">
+        <f t="shared" si="4"/>
         <v>8.6092715231788084</v>
       </c>
-      <c r="H5" s="47">
-        <f t="shared" si="3"/>
+      <c r="H5" s="24">
+        <f t="shared" si="4"/>
         <v>9.2715231788079464</v>
       </c>
-      <c r="I5" s="47">
-        <f t="shared" si="3"/>
+      <c r="I5" s="24">
+        <f t="shared" si="4"/>
         <v>1.9867549668874172</v>
       </c>
-      <c r="J5" s="47">
-        <f t="shared" si="3"/>
+      <c r="J5" s="24">
+        <f t="shared" si="4"/>
         <v>31.125827814569536</v>
       </c>
-      <c r="K5" s="47">
-        <f t="shared" si="3"/>
+      <c r="K5" s="24">
+        <f t="shared" si="4"/>
         <v>10.596026490066226</v>
       </c>
-      <c r="L5" s="47">
-        <f t="shared" si="3"/>
+      <c r="L5" s="24">
+        <f t="shared" si="4"/>
         <v>17.218543046357617</v>
       </c>
-      <c r="M5" s="47">
-        <f t="shared" si="3"/>
+      <c r="M5" s="24">
+        <f t="shared" si="4"/>
         <v>5.298013245033113</v>
       </c>
       <c r="N5" s="14"/>
-      <c r="O5" s="47">
-        <f t="shared" si="3"/>
+      <c r="O5" s="24">
+        <f t="shared" si="4"/>
         <v>55.629139072847686</v>
       </c>
-      <c r="P5" s="47">
-        <f t="shared" si="3"/>
+      <c r="P5" s="24">
+        <f t="shared" si="4"/>
         <v>7.2847682119205297</v>
       </c>
-      <c r="Q5" s="47">
-        <f t="shared" si="3"/>
+      <c r="Q5" s="24">
+        <f t="shared" si="4"/>
         <v>5.9602649006622519</v>
       </c>
-      <c r="R5" s="47">
-        <f t="shared" si="3"/>
+      <c r="R5" s="24">
+        <f t="shared" si="4"/>
         <v>34.437086092715234</v>
       </c>
-      <c r="S5" s="47">
-        <f t="shared" si="3"/>
+      <c r="S5" s="24">
+        <f t="shared" si="4"/>
         <v>48.34437086092715</v>
       </c>
-      <c r="T5" s="47">
-        <f t="shared" si="3"/>
+      <c r="T5" s="24">
+        <f t="shared" si="4"/>
         <v>13.245033112582782</v>
       </c>
-      <c r="U5" s="47">
-        <f t="shared" si="3"/>
+      <c r="U5" s="24">
+        <f t="shared" si="4"/>
         <v>35.76158940397351</v>
       </c>
-      <c r="V5" s="47">
-        <f t="shared" si="3"/>
+      <c r="V5" s="24">
+        <f t="shared" si="4"/>
         <v>27.152317880794701</v>
       </c>
-      <c r="W5" s="47">
-        <f t="shared" si="3"/>
-        <v>62.251655629139073</v>
-      </c>
-      <c r="X5" s="47">
-        <f t="shared" si="3"/>
-        <v>52.980132450331126</v>
-      </c>
-      <c r="Y5" s="47">
-        <f t="shared" si="3"/>
+      <c r="W5" s="24">
+        <f t="shared" si="4"/>
+        <v>60.927152317880797</v>
+      </c>
+      <c r="X5" s="24">
+        <f t="shared" si="4"/>
+        <v>52.317880794701985</v>
+      </c>
+      <c r="Y5" s="24">
+        <f t="shared" si="4"/>
+        <v>29.139072847682119</v>
+      </c>
+      <c r="Z5" s="24">
+        <f t="shared" si="4"/>
+        <v>18.543046357615893</v>
+      </c>
+      <c r="AA5" s="24">
+        <f t="shared" si="4"/>
+        <v>24.503311258278146</v>
+      </c>
+      <c r="AB5" s="24">
+        <f t="shared" si="4"/>
+        <v>15.231788079470199</v>
+      </c>
+      <c r="AC5" s="24">
+        <f t="shared" si="4"/>
+        <v>9.2715231788079464</v>
+      </c>
+      <c r="AD5" s="24">
+        <f t="shared" si="4"/>
         <v>23.178807947019866</v>
       </c>
-      <c r="Z5" s="47">
-        <f t="shared" si="3"/>
-        <v>18.543046357615893</v>
-      </c>
-      <c r="AA5" s="47">
-        <f t="shared" si="3"/>
-        <v>23.841059602649008</v>
-      </c>
-      <c r="AB5" s="47">
-        <f t="shared" si="3"/>
-        <v>9.9337748344370862</v>
-      </c>
-      <c r="AC5" s="47">
-        <f t="shared" si="3"/>
-        <v>4.6357615894039732</v>
-      </c>
-      <c r="AD5" s="47">
-        <f t="shared" si="3"/>
-        <v>22.516556291390728</v>
-      </c>
-      <c r="AE5" s="47">
-        <f t="shared" si="3"/>
-        <v>24.503311258278146</v>
+      <c r="AE5" s="24">
+        <f t="shared" si="4"/>
+        <v>30.463576158940398</v>
+      </c>
+      <c r="AF5" s="24">
+        <f t="shared" si="4"/>
+        <v>31.788079470198674</v>
+      </c>
+      <c r="AG5" s="24">
+        <f t="shared" si="4"/>
+        <v>11.920529801324504</v>
+      </c>
+      <c r="AH5" s="24">
+        <f t="shared" si="4"/>
+        <v>37.748344370860927</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.75">
@@ -1783,7 +1940,7 @@
         <v>23</v>
       </c>
       <c r="R7" s="15" t="str">
-        <f t="shared" ref="R7:R70" si="4" xml:space="preserve"> IF(OR(F7="x", J7="x"),"x", "")</f>
+        <f t="shared" ref="R7:R70" si="5" xml:space="preserve"> IF(OR(F7="x", J7="x"),"x", "")</f>
         <v/>
       </c>
       <c r="S7" s="15" t="s">
@@ -1799,17 +1956,23 @@
         <v>23</v>
       </c>
       <c r="Y7" s="19" t="str">
-        <f t="shared" ref="Y7:Y70" si="5" xml:space="preserve"> IF(AND($AE7="x", W7="x"), "x","")</f>
+        <f t="shared" ref="Y7:Y70" si="6" xml:space="preserve"> IF(AND($AE7="x", W7="x"), "x","")</f>
         <v/>
       </c>
       <c r="Z7" s="15" t="s">
         <v>23</v>
       </c>
       <c r="AC7" s="19" t="str">
-        <f t="shared" ref="AC7:AC70" si="6" xml:space="preserve"> IF(AND($AE7="x", AA7="x"), "x","")</f>
+        <f t="shared" ref="AC7:AC70" si="7" xml:space="preserve"> IF(AND($AE7="x", AA7="x"), "x","")</f>
         <v/>
       </c>
       <c r="AE7" s="19"/>
+      <c r="AF7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH7" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A8" s="16" t="s">
@@ -1829,7 +1992,7 @@
       </c>
       <c r="O8" s="17"/>
       <c r="R8" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>x</v>
       </c>
       <c r="W8" s="15" t="s">
@@ -1839,11 +2002,11 @@
         <v>23</v>
       </c>
       <c r="Y8" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>x</v>
       </c>
       <c r="AC8" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE8" s="19" t="s">
@@ -1864,7 +2027,7 @@
         <v>23</v>
       </c>
       <c r="R9" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S9" s="15" t="s">
@@ -1874,14 +2037,17 @@
         <v>23</v>
       </c>
       <c r="Y9" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC9" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE9" s="19"/>
+      <c r="AF9" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A10" s="16" t="s">
@@ -1897,7 +2063,7 @@
         <v>23</v>
       </c>
       <c r="R10" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S10" s="15" t="s">
@@ -1907,14 +2073,20 @@
         <v>23</v>
       </c>
       <c r="Y10" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC10" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE10" s="19"/>
+      <c r="AF10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH10" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A11" s="16" t="s">
@@ -1930,7 +2102,7 @@
         <v>23</v>
       </c>
       <c r="R11" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S11" s="15" t="s">
@@ -1940,14 +2112,20 @@
         <v>23</v>
       </c>
       <c r="Y11" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC11" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE11" s="19"/>
+      <c r="AF11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH11" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A12" s="16" t="s">
@@ -1964,7 +2142,7 @@
         <v>23</v>
       </c>
       <c r="R12" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S12" s="15" t="s">
@@ -1977,15 +2155,21 @@
         <v>23</v>
       </c>
       <c r="Y12" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z12" s="15" t="s">
         <v>23</v>
       </c>
       <c r="AC12" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AF12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG12" s="15" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.75">
@@ -2003,7 +2187,7 @@
         <v>23</v>
       </c>
       <c r="R13" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S13" s="15" t="s">
@@ -2019,7 +2203,7 @@
         <v>23</v>
       </c>
       <c r="Y13" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z13" s="15" t="s">
@@ -2032,8 +2216,14 @@
         <v>23</v>
       </c>
       <c r="AC13" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AF13" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH13" s="15" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.75">
@@ -2052,7 +2242,7 @@
         <v>23</v>
       </c>
       <c r="R14" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>x</v>
       </c>
       <c r="S14" s="15" t="s">
@@ -2068,14 +2258,17 @@
         <v>23</v>
       </c>
       <c r="Y14" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>x</v>
       </c>
       <c r="AC14" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG14" s="15" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2094,7 +2287,7 @@
       </c>
       <c r="O15" s="17"/>
       <c r="R15" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="T15" s="15" t="s">
@@ -2104,11 +2297,11 @@
         <v>23</v>
       </c>
       <c r="Y15" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC15" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2127,7 +2320,7 @@
         <v>23</v>
       </c>
       <c r="R16" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S16" s="15" t="s">
@@ -2137,15 +2330,18 @@
         <v>23</v>
       </c>
       <c r="Y16" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC16" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AF16" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A17" s="16" t="s">
         <v>29</v>
       </c>
@@ -2163,7 +2359,7 @@
         <v>23</v>
       </c>
       <c r="R17" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S17" s="15" t="s">
@@ -2173,21 +2369,24 @@
         <v>23</v>
       </c>
       <c r="Y17" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA17" s="15" t="s">
         <v>23</v>
       </c>
       <c r="AC17" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD17" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AH17" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A18" s="16" t="s">
         <v>29</v>
       </c>
@@ -2202,7 +2401,7 @@
         <v>23</v>
       </c>
       <c r="R18" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S18" s="15" t="s">
@@ -2212,21 +2411,24 @@
         <v>23</v>
       </c>
       <c r="Y18" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA18" s="15" t="s">
         <v>23</v>
       </c>
       <c r="AC18" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD18" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AH18" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A19" s="16" t="s">
         <v>29</v>
       </c>
@@ -2241,7 +2443,7 @@
         <v>23</v>
       </c>
       <c r="R19" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S19" s="15" t="s">
@@ -2257,11 +2459,11 @@
         <v>23</v>
       </c>
       <c r="Y19" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>x</v>
       </c>
       <c r="AC19" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD19" s="15" t="s">
@@ -2270,8 +2472,11 @@
       <c r="AE19" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AH19" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A20" s="16" t="s">
         <v>29</v>
       </c>
@@ -2286,7 +2491,7 @@
         <v>23</v>
       </c>
       <c r="R20" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S20" s="15" t="s">
@@ -2302,14 +2507,14 @@
         <v>23</v>
       </c>
       <c r="Y20" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>x</v>
       </c>
       <c r="AA20" s="15" t="s">
         <v>23</v>
       </c>
       <c r="AC20" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="AD20" s="15" t="s">
@@ -2318,8 +2523,11 @@
       <c r="AE20" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AH20" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A21" s="16" t="s">
         <v>29</v>
       </c>
@@ -2337,7 +2545,7 @@
         <v>23</v>
       </c>
       <c r="R21" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S21" s="15" t="s">
@@ -2347,21 +2555,27 @@
         <v>23</v>
       </c>
       <c r="Y21" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA21" s="15" t="s">
         <v>23</v>
       </c>
       <c r="AC21" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD21" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AG21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH21" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A22" s="16" t="s">
         <v>29</v>
       </c>
@@ -2375,7 +2589,7 @@
         <v>23</v>
       </c>
       <c r="R22" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S22" s="15" t="s">
@@ -2385,7 +2599,7 @@
         <v>23</v>
       </c>
       <c r="Y22" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA22" s="15" t="s">
@@ -2395,14 +2609,20 @@
         <v>23</v>
       </c>
       <c r="AC22" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD22" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AG22" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH22" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A23" s="16" t="s">
         <v>29</v>
       </c>
@@ -2422,7 +2642,7 @@
         <v>23</v>
       </c>
       <c r="R23" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S23" s="15" t="s">
@@ -2432,15 +2652,21 @@
         <v>23</v>
       </c>
       <c r="Y23" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC23" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AG23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH23" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A24" s="16" t="s">
         <v>29</v>
       </c>
@@ -2454,7 +2680,7 @@
         <v>23</v>
       </c>
       <c r="R24" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S24" s="15" t="s">
@@ -2464,7 +2690,7 @@
         <v>23</v>
       </c>
       <c r="Y24" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA24" s="15" t="s">
@@ -2474,14 +2700,23 @@
         <v>23</v>
       </c>
       <c r="AC24" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD24" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AF24" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG24" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH24" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A25" s="16" t="s">
         <v>29</v>
       </c>
@@ -2495,7 +2730,7 @@
         <v>23</v>
       </c>
       <c r="R25" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S25" s="15" t="s">
@@ -2511,18 +2746,27 @@
         <v>23</v>
       </c>
       <c r="Y25" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>x</v>
       </c>
       <c r="AC25" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE25" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AF25" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG25" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH25" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A26" s="16" t="s">
         <v>29</v>
       </c>
@@ -2536,7 +2780,7 @@
         <v>23</v>
       </c>
       <c r="R26" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>x</v>
       </c>
       <c r="W26" s="15" t="s">
@@ -2546,15 +2790,15 @@
         <v>23</v>
       </c>
       <c r="Y26" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC26" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A27" s="16" t="s">
         <v>29</v>
       </c>
@@ -2571,7 +2815,7 @@
         <v>23</v>
       </c>
       <c r="R27" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S27" s="15" t="s">
@@ -2581,15 +2825,18 @@
         <v>23</v>
       </c>
       <c r="Y27" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC27" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AF27" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A28" s="16" t="s">
         <v>29</v>
       </c>
@@ -2609,7 +2856,7 @@
         <v>23</v>
       </c>
       <c r="R28" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S28" s="15" t="s">
@@ -2619,21 +2866,27 @@
         <v>23</v>
       </c>
       <c r="Y28" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA28" s="15" t="s">
         <v>23</v>
       </c>
       <c r="AC28" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD28" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AF28" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH28" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A29" s="16" t="s">
         <v>29</v>
       </c>
@@ -2647,7 +2900,7 @@
         <v>23</v>
       </c>
       <c r="R29" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S29" s="15" t="s">
@@ -2663,21 +2916,27 @@
         <v>23</v>
       </c>
       <c r="Y29" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA29" s="15" t="s">
         <v>23</v>
       </c>
       <c r="AC29" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD29" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AF29" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH29" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A30" s="16" t="s">
         <v>29</v>
       </c>
@@ -2691,7 +2950,7 @@
         <v>23</v>
       </c>
       <c r="R30" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S30" s="15" t="s">
@@ -2707,21 +2966,27 @@
         <v>23</v>
       </c>
       <c r="Y30" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA30" s="15" t="s">
         <v>23</v>
       </c>
       <c r="AC30" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD30" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AF30" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH30" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A31" s="16" t="s">
         <v>48</v>
       </c>
@@ -2736,25 +3001,25 @@
       </c>
       <c r="O31" s="17"/>
       <c r="R31" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>x</v>
       </c>
       <c r="W31" s="15" t="s">
         <v>23</v>
       </c>
       <c r="Y31" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z31" s="15" t="s">
         <v>23</v>
       </c>
       <c r="AC31" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A32" s="16" t="s">
         <v>48</v>
       </c>
@@ -2770,7 +3035,7 @@
         <v>23</v>
       </c>
       <c r="R32" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S32" s="15" t="s">
@@ -2780,15 +3045,21 @@
         <v>23</v>
       </c>
       <c r="Y32" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC32" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AF32" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH32" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A33" s="16" t="s">
         <v>48</v>
       </c>
@@ -2803,25 +3074,25 @@
       </c>
       <c r="O33" s="17"/>
       <c r="R33" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>x</v>
       </c>
       <c r="W33" s="15" t="s">
         <v>23</v>
       </c>
       <c r="Y33" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z33" s="15" t="s">
         <v>23</v>
       </c>
       <c r="AC33" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A34" s="16" t="s">
         <v>48</v>
       </c>
@@ -2836,7 +3107,7 @@
         <v>23</v>
       </c>
       <c r="R34" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S34" s="15" t="s">
@@ -2849,18 +3120,21 @@
         <v>23</v>
       </c>
       <c r="Y34" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z34" s="15" t="s">
         <v>23</v>
       </c>
       <c r="AC34" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AF34" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A35" s="16" t="s">
         <v>48</v>
       </c>
@@ -2875,7 +3149,7 @@
         <v>23</v>
       </c>
       <c r="R35" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S35" s="15" t="s">
@@ -2885,21 +3159,30 @@
         <v>23</v>
       </c>
       <c r="Y35" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA35" s="15" t="s">
         <v>23</v>
       </c>
       <c r="AC35" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD35" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AF35" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG35" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH35" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A36" s="16" t="s">
         <v>48</v>
       </c>
@@ -2917,7 +3200,7 @@
         <v>23</v>
       </c>
       <c r="R36" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>x</v>
       </c>
       <c r="S36" s="15" t="s">
@@ -2933,7 +3216,7 @@
         <v>23</v>
       </c>
       <c r="Y36" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>x</v>
       </c>
       <c r="AA36" s="15" t="s">
@@ -2943,7 +3226,7 @@
         <v>23</v>
       </c>
       <c r="AC36" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="AD36" s="15" t="s">
@@ -2952,8 +3235,11 @@
       <c r="AE36" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AG36" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A37" s="16" t="s">
         <v>53</v>
       </c>
@@ -2969,7 +3255,7 @@
         <v>23</v>
       </c>
       <c r="R37" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S37" s="18"/>
@@ -2981,20 +3267,20 @@
         <v>23</v>
       </c>
       <c r="Y37" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z37" s="18"/>
       <c r="AA37" s="18"/>
       <c r="AB37" s="18"/>
       <c r="AC37" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD37" s="18"/>
       <c r="AE37" s="18"/>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A38" s="16" t="s">
         <v>53</v>
       </c>
@@ -3011,7 +3297,7 @@
         <v>23</v>
       </c>
       <c r="R38" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S38" s="18"/>
@@ -3023,7 +3309,7 @@
       </c>
       <c r="X38" s="18"/>
       <c r="Y38" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z38" s="18" t="s">
@@ -3032,13 +3318,13 @@
       <c r="AA38" s="18"/>
       <c r="AB38" s="18"/>
       <c r="AC38" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD38" s="18"/>
       <c r="AE38" s="18"/>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A39" s="16" t="s">
         <v>53</v>
       </c>
@@ -3054,7 +3340,7 @@
         <v>23</v>
       </c>
       <c r="R39" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S39" s="18"/>
@@ -3066,20 +3352,20 @@
         <v>23</v>
       </c>
       <c r="Y39" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z39" s="18"/>
       <c r="AA39" s="18"/>
       <c r="AB39" s="18"/>
       <c r="AC39" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD39" s="18"/>
       <c r="AE39" s="18"/>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A40" s="16" t="s">
         <v>53</v>
       </c>
@@ -3094,7 +3380,7 @@
         <v>23</v>
       </c>
       <c r="R40" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S40" s="18" t="s">
@@ -3111,20 +3397,23 @@
         <v>23</v>
       </c>
       <c r="Y40" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z40" s="18"/>
       <c r="AA40" s="18"/>
       <c r="AB40" s="18"/>
       <c r="AC40" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD40" s="18"/>
       <c r="AE40" s="18"/>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AH40" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A41" s="16" t="s">
         <v>53</v>
       </c>
@@ -3139,7 +3428,7 @@
         <v>23</v>
       </c>
       <c r="R41" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S41" s="18" t="s">
@@ -3156,7 +3445,7 @@
         <v>23</v>
       </c>
       <c r="Y41" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z41" s="18"/>
@@ -3167,13 +3456,19 @@
         <v>23</v>
       </c>
       <c r="AC41" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD41" s="18"/>
       <c r="AE41" s="18"/>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AF41" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH41" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A42" s="16" t="s">
         <v>53</v>
       </c>
@@ -3188,7 +3483,7 @@
         <v>23</v>
       </c>
       <c r="R42" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S42" s="18" t="s">
@@ -3203,7 +3498,7 @@
       </c>
       <c r="X42" s="18"/>
       <c r="Y42" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z42" s="18" t="s">
@@ -3212,13 +3507,16 @@
       <c r="AA42" s="18"/>
       <c r="AB42" s="18"/>
       <c r="AC42" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD42" s="18"/>
       <c r="AE42" s="18"/>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AF42" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A43" s="16" t="s">
         <v>53</v>
       </c>
@@ -3236,7 +3534,7 @@
         <v>23</v>
       </c>
       <c r="R43" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S43" s="18" t="s">
@@ -3249,7 +3547,7 @@
       <c r="W43" s="18"/>
       <c r="X43" s="18"/>
       <c r="Y43" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z43" s="18"/>
@@ -3258,15 +3556,24 @@
       </c>
       <c r="AB43" s="18"/>
       <c r="AC43" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD43" s="18" t="s">
         <v>23</v>
       </c>
       <c r="AE43" s="18"/>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AF43" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG43" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH43" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A44" s="16" t="s">
         <v>58</v>
       </c>
@@ -3280,22 +3587,22 @@
         <v>23</v>
       </c>
       <c r="R44" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>x</v>
       </c>
       <c r="W44" s="15" t="s">
         <v>60</v>
       </c>
       <c r="Y44" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC44" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A45" s="16" t="s">
         <v>58</v>
       </c>
@@ -3311,7 +3618,7 @@
         <v>23</v>
       </c>
       <c r="R45" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S45" s="15" t="s">
@@ -3327,18 +3634,21 @@
         <v>23</v>
       </c>
       <c r="Y45" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z45" s="15" t="s">
         <v>23</v>
       </c>
       <c r="AC45" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AH45" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A46" s="16" t="s">
         <v>58</v>
       </c>
@@ -3353,7 +3663,7 @@
         <v>23</v>
       </c>
       <c r="R46" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S46" s="15" t="s">
@@ -3369,14 +3679,14 @@
         <v>23</v>
       </c>
       <c r="Y46" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>x</v>
       </c>
       <c r="AA46" s="15" t="s">
         <v>23</v>
       </c>
       <c r="AC46" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="AD46" s="15" t="s">
@@ -3385,8 +3695,11 @@
       <c r="AE46" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AH46" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A47" s="16" t="s">
         <v>58</v>
       </c>
@@ -3400,22 +3713,25 @@
         <v>23</v>
       </c>
       <c r="R47" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>x</v>
       </c>
       <c r="W47" s="15" t="s">
         <v>23</v>
       </c>
       <c r="Y47" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>x</v>
       </c>
       <c r="AC47" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE47" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A48" s="16" t="s">
         <v>58</v>
       </c>
@@ -3432,7 +3748,7 @@
       </c>
       <c r="Q48" s="18"/>
       <c r="R48" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="U48" s="18"/>
@@ -3444,14 +3760,14 @@
         <v>23</v>
       </c>
       <c r="Y48" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z48" s="18"/>
       <c r="AA48" s="18"/>
       <c r="AB48" s="18"/>
       <c r="AC48" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD48" s="18" t="s">
@@ -3459,7 +3775,7 @@
       </c>
       <c r="AE48" s="18"/>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A49" s="16" t="s">
         <v>58</v>
       </c>
@@ -3475,7 +3791,7 @@
         <v>23</v>
       </c>
       <c r="R49" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S49" s="15" t="s">
@@ -3491,15 +3807,21 @@
         <v>23</v>
       </c>
       <c r="Y49" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC49" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AF49" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG49" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A50" s="16" t="s">
         <v>58</v>
       </c>
@@ -3514,22 +3836,25 @@
       </c>
       <c r="O50" s="17"/>
       <c r="R50" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>x</v>
       </c>
       <c r="W50" s="15" t="s">
         <v>23</v>
       </c>
       <c r="Y50" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>x</v>
       </c>
       <c r="AC50" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE50" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A51" s="16" t="s">
         <v>58</v>
       </c>
@@ -3544,7 +3869,7 @@
         <v>23</v>
       </c>
       <c r="R51" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S51" s="15" t="s">
@@ -3556,7 +3881,7 @@
       <c r="W51" s="20"/>
       <c r="X51" s="20"/>
       <c r="Y51" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z51" s="20"/>
@@ -3565,15 +3890,26 @@
       </c>
       <c r="AB51" s="20"/>
       <c r="AC51" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD51" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="AE51" s="20"/>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AE51" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF51" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG51" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH51" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A52" s="16" t="s">
         <v>58</v>
       </c>
@@ -3587,7 +3923,7 @@
         <v>23</v>
       </c>
       <c r="R52" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>x</v>
       </c>
       <c r="W52" s="15" t="s">
@@ -3597,15 +3933,15 @@
         <v>23</v>
       </c>
       <c r="Y52" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC52" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A53" s="16" t="s">
         <v>58</v>
       </c>
@@ -3620,19 +3956,19 @@
         <v>23</v>
       </c>
       <c r="R53" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y53" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC53" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A54" s="16" t="s">
         <v>58</v>
       </c>
@@ -3647,7 +3983,7 @@
         <v>23</v>
       </c>
       <c r="R54" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S54" s="15" t="s">
@@ -3657,15 +3993,18 @@
         <v>23</v>
       </c>
       <c r="Y54" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC54" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AF54" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A55" s="16" t="s">
         <v>58</v>
       </c>
@@ -3680,7 +4019,7 @@
         <v>23</v>
       </c>
       <c r="R55" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S55" s="15" t="s">
@@ -3690,15 +4029,21 @@
         <v>23</v>
       </c>
       <c r="Y55" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC55" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AF55" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH55" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A56" s="16" t="s">
         <v>58</v>
       </c>
@@ -3713,7 +4058,7 @@
         <v>23</v>
       </c>
       <c r="R56" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S56" s="15" t="s">
@@ -3729,15 +4074,18 @@
         <v>23</v>
       </c>
       <c r="Y56" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC56" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AF56" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A57" s="16" t="s">
         <v>58</v>
       </c>
@@ -3752,7 +4100,7 @@
         <v>23</v>
       </c>
       <c r="R57" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S57" s="15" t="s">
@@ -3762,15 +4110,21 @@
         <v>23</v>
       </c>
       <c r="Y57" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC57" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AF57" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH57" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A58" s="16" t="s">
         <v>58</v>
       </c>
@@ -3782,7 +4136,7 @@
       </c>
       <c r="N58" s="19"/>
       <c r="R58" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>x</v>
       </c>
       <c r="W58" s="15" t="s">
@@ -3792,18 +4146,18 @@
         <v>23</v>
       </c>
       <c r="Y58" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z58" s="15" t="s">
         <v>23</v>
       </c>
       <c r="AC58" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A59" s="16" t="s">
         <v>58</v>
       </c>
@@ -3818,7 +4172,7 @@
         <v>23</v>
       </c>
       <c r="R59" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="T59" s="15" t="s">
@@ -3828,15 +4182,15 @@
         <v>23</v>
       </c>
       <c r="Y59" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC59" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A60" s="16" t="s">
         <v>58</v>
       </c>
@@ -3851,7 +4205,7 @@
         <v>23</v>
       </c>
       <c r="R60" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="T60" s="15" t="s">
@@ -3861,15 +4215,15 @@
         <v>23</v>
       </c>
       <c r="Y60" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC60" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A61" s="16" t="s">
         <v>58</v>
       </c>
@@ -3884,7 +4238,7 @@
       </c>
       <c r="N61" s="19"/>
       <c r="R61" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>x</v>
       </c>
       <c r="W61" s="15" t="s">
@@ -3894,21 +4248,27 @@
         <v>23</v>
       </c>
       <c r="Y61" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>x</v>
       </c>
       <c r="AA61" s="15" t="s">
         <v>23</v>
       </c>
+      <c r="AB61" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="AC61" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>x</v>
       </c>
       <c r="AD61" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AE61" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A62" s="16" t="s">
         <v>58</v>
       </c>
@@ -3920,7 +4280,7 @@
       </c>
       <c r="N62" s="19"/>
       <c r="R62" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>x</v>
       </c>
       <c r="W62" s="15" t="s">
@@ -3930,21 +4290,27 @@
         <v>23</v>
       </c>
       <c r="Y62" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>x</v>
       </c>
       <c r="AA62" s="15" t="s">
         <v>23</v>
       </c>
+      <c r="AB62" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="AC62" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>x</v>
       </c>
       <c r="AD62" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AE62" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A63" s="16" t="s">
         <v>58</v>
       </c>
@@ -3956,7 +4322,7 @@
       </c>
       <c r="N63" s="19"/>
       <c r="R63" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>x</v>
       </c>
       <c r="W63" s="15" t="s">
@@ -3966,21 +4332,27 @@
         <v>23</v>
       </c>
       <c r="Y63" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>x</v>
       </c>
       <c r="AA63" s="15" t="s">
         <v>23</v>
       </c>
+      <c r="AB63" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="AC63" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>x</v>
       </c>
       <c r="AD63" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AE63" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A64" s="16" t="s">
         <v>58</v>
       </c>
@@ -3992,7 +4364,7 @@
       </c>
       <c r="N64" s="19"/>
       <c r="R64" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>x</v>
       </c>
       <c r="W64" s="15" t="s">
@@ -4002,21 +4374,27 @@
         <v>23</v>
       </c>
       <c r="Y64" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>x</v>
       </c>
       <c r="AA64" s="15" t="s">
         <v>23</v>
       </c>
+      <c r="AB64" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="AC64" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>x</v>
       </c>
       <c r="AD64" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AE64" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A65" s="16" t="s">
         <v>58</v>
       </c>
@@ -4028,7 +4406,7 @@
       </c>
       <c r="N65" s="19"/>
       <c r="R65" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>x</v>
       </c>
       <c r="W65" s="15" t="s">
@@ -4038,21 +4416,27 @@
         <v>23</v>
       </c>
       <c r="Y65" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>x</v>
       </c>
       <c r="AA65" s="15" t="s">
         <v>23</v>
       </c>
+      <c r="AB65" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="AC65" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>x</v>
       </c>
       <c r="AD65" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AE65" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A66" s="16" t="s">
         <v>58</v>
       </c>
@@ -4064,7 +4448,7 @@
       </c>
       <c r="N66" s="19"/>
       <c r="R66" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>x</v>
       </c>
       <c r="W66" s="15" t="s">
@@ -4074,21 +4458,27 @@
         <v>23</v>
       </c>
       <c r="Y66" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>x</v>
       </c>
       <c r="AA66" s="15" t="s">
         <v>23</v>
       </c>
+      <c r="AB66" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="AC66" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>x</v>
       </c>
       <c r="AD66" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AE66" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A67" s="16" t="s">
         <v>58</v>
       </c>
@@ -4100,22 +4490,28 @@
       </c>
       <c r="N67" s="19"/>
       <c r="R67" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>x</v>
-      </c>
-      <c r="W67" s="15" t="s">
-        <v>23</v>
+        <f t="shared" si="5"/>
+        <v>x</v>
       </c>
       <c r="Y67" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA67" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB67" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="AC67" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AD67" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A68" s="16" t="s">
         <v>58</v>
       </c>
@@ -4127,7 +4523,7 @@
       </c>
       <c r="N68" s="19"/>
       <c r="R68" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>x</v>
       </c>
       <c r="W68" s="15" t="s">
@@ -4137,21 +4533,27 @@
         <v>23</v>
       </c>
       <c r="Y68" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>x</v>
       </c>
       <c r="AA68" s="15" t="s">
         <v>23</v>
       </c>
+      <c r="AB68" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="AC68" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>x</v>
       </c>
       <c r="AD68" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AE68" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A69" s="16" t="s">
         <v>58</v>
       </c>
@@ -4163,7 +4565,7 @@
       </c>
       <c r="N69" s="19"/>
       <c r="R69" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>x</v>
       </c>
       <c r="W69" s="15" t="s">
@@ -4173,15 +4575,15 @@
         <v>23</v>
       </c>
       <c r="Y69" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC69" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A70" s="16" t="s">
         <v>58</v>
       </c>
@@ -4193,7 +4595,7 @@
       </c>
       <c r="N70" s="19"/>
       <c r="R70" s="15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>x</v>
       </c>
       <c r="T70" s="15" t="s">
@@ -4209,15 +4611,15 @@
         <v>23</v>
       </c>
       <c r="Y70" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC70" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A71" s="16" t="s">
         <v>58</v>
       </c>
@@ -4232,7 +4634,7 @@
       <c r="P71" s="17"/>
       <c r="Q71" s="17"/>
       <c r="R71" s="15" t="str">
-        <f t="shared" ref="R71:R134" si="7" xml:space="preserve"> IF(OR(F71="x", J71="x"),"x", "")</f>
+        <f t="shared" ref="R71:R134" si="8" xml:space="preserve"> IF(OR(F71="x", J71="x"),"x", "")</f>
         <v>x</v>
       </c>
       <c r="U71" s="17"/>
@@ -4244,7 +4646,7 @@
         <v>23</v>
       </c>
       <c r="Y71" s="19" t="str">
-        <f t="shared" ref="Y71:Y134" si="8" xml:space="preserve"> IF(AND($AE71="x", W71="x"), "x","")</f>
+        <f t="shared" ref="Y71:Y134" si="9" xml:space="preserve"> IF(AND($AE71="x", W71="x"), "x","")</f>
         <v/>
       </c>
       <c r="Z71" s="17" t="s">
@@ -4253,13 +4655,13 @@
       <c r="AA71" s="17"/>
       <c r="AB71" s="17"/>
       <c r="AC71" s="19" t="str">
-        <f t="shared" ref="AC71:AC134" si="9" xml:space="preserve"> IF(AND($AE71="x", AA71="x"), "x","")</f>
+        <f t="shared" ref="AC71:AC134" si="10" xml:space="preserve"> IF(AND($AE71="x", AA71="x"), "x","")</f>
         <v/>
       </c>
       <c r="AD71" s="17"/>
       <c r="AE71" s="17"/>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A72" s="16" t="s">
         <v>58</v>
       </c>
@@ -4273,7 +4675,7 @@
         <v>23</v>
       </c>
       <c r="R72" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>x</v>
       </c>
       <c r="W72" s="15" t="s">
@@ -4283,18 +4685,18 @@
         <v>23</v>
       </c>
       <c r="Y72" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="AC72" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AE72" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A73" s="16" t="s">
         <v>58</v>
       </c>
@@ -4309,7 +4711,7 @@
         <v>23</v>
       </c>
       <c r="R73" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S73" s="15" t="s">
@@ -4319,15 +4721,21 @@
         <v>23</v>
       </c>
       <c r="Y73" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC73" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AF73" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH73" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A74" s="16" t="s">
         <v>58</v>
       </c>
@@ -4342,22 +4750,22 @@
         <v>23</v>
       </c>
       <c r="R74" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V74" s="15" t="s">
         <v>23</v>
       </c>
       <c r="Y74" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC74" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A75" s="16" t="s">
         <v>58</v>
       </c>
@@ -4372,7 +4780,7 @@
         <v>23</v>
       </c>
       <c r="R75" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T75" s="15" t="s">
@@ -4381,11 +4789,8 @@
       <c r="U75" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="W75" s="15" t="s">
-        <v>23</v>
-      </c>
       <c r="Y75" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA75" s="15" t="s">
@@ -4395,14 +4800,14 @@
         <v>23</v>
       </c>
       <c r="AC75" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD75" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A76" s="16" t="s">
         <v>58</v>
       </c>
@@ -4417,7 +4822,7 @@
         <v>23</v>
       </c>
       <c r="R76" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T76" s="15" t="s">
@@ -4427,7 +4832,7 @@
         <v>23</v>
       </c>
       <c r="Y76" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA76" s="15" t="s">
@@ -4437,14 +4842,14 @@
         <v>23</v>
       </c>
       <c r="AC76" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD76" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A77" s="16" t="s">
         <v>58</v>
       </c>
@@ -4462,7 +4867,7 @@
         <v>23</v>
       </c>
       <c r="R77" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S77" s="15" t="s">
@@ -4478,7 +4883,7 @@
         <v>23</v>
       </c>
       <c r="Y77" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="Z77" s="15" t="s">
@@ -4488,7 +4893,7 @@
         <v>23</v>
       </c>
       <c r="AC77" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>x</v>
       </c>
       <c r="AD77" s="15" t="s">
@@ -4497,8 +4902,14 @@
       <c r="AE77" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AF77" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH77" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A78" s="16" t="s">
         <v>58</v>
       </c>
@@ -4513,7 +4924,7 @@
         <v>23</v>
       </c>
       <c r="R78" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T78" s="15" t="s">
@@ -4523,15 +4934,15 @@
         <v>23</v>
       </c>
       <c r="Y78" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC78" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A79" s="16" t="s">
         <v>58</v>
       </c>
@@ -4546,19 +4957,22 @@
         <v>23</v>
       </c>
       <c r="R79" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y79" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC79" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AH79" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A80" s="16" t="s">
         <v>58</v>
       </c>
@@ -4573,7 +4987,7 @@
         <v>23</v>
       </c>
       <c r="R80" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S80" s="15" t="s">
@@ -4586,18 +5000,24 @@
         <v>23</v>
       </c>
       <c r="Y80" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z80" s="15" t="s">
         <v>23</v>
       </c>
       <c r="AC80" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AF80" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH80" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A81" s="16" t="s">
         <v>58</v>
       </c>
@@ -4612,7 +5032,7 @@
         <v>23</v>
       </c>
       <c r="R81" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S81" s="15" t="s">
@@ -4625,18 +5045,24 @@
         <v>23</v>
       </c>
       <c r="Y81" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z81" s="15" t="s">
         <v>23</v>
       </c>
       <c r="AC81" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AF81" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH81" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A82" s="16" t="s">
         <v>58</v>
       </c>
@@ -4648,7 +5074,7 @@
       </c>
       <c r="N82" s="19"/>
       <c r="R82" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>x</v>
       </c>
       <c r="W82" s="15" t="s">
@@ -4658,15 +5084,15 @@
         <v>23</v>
       </c>
       <c r="Y82" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC82" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A83" s="16" t="s">
         <v>58</v>
       </c>
@@ -4681,7 +5107,7 @@
         <v>23</v>
       </c>
       <c r="R83" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S83" s="15" t="s">
@@ -4697,18 +5123,24 @@
         <v>23</v>
       </c>
       <c r="Y83" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z83" s="15" t="s">
         <v>23</v>
       </c>
       <c r="AC83" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AF83" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH83" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A84" s="16" t="s">
         <v>58</v>
       </c>
@@ -4723,7 +5155,7 @@
         <v>23</v>
       </c>
       <c r="R84" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T84" s="15" t="s">
@@ -4739,15 +5171,15 @@
         <v>23</v>
       </c>
       <c r="Y84" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC84" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A85" s="16" t="s">
         <v>58</v>
       </c>
@@ -4762,7 +5194,7 @@
         <v>23</v>
       </c>
       <c r="R85" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T85" s="15" t="s">
@@ -4772,7 +5204,7 @@
         <v>23</v>
       </c>
       <c r="Y85" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA85" s="15" t="s">
@@ -4782,7 +5214,7 @@
         <v>23</v>
       </c>
       <c r="AC85" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>x</v>
       </c>
       <c r="AD85" s="15" t="s">
@@ -4792,7 +5224,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A86" s="16" t="s">
         <v>58</v>
       </c>
@@ -4807,7 +5239,7 @@
         <v>23</v>
       </c>
       <c r="R86" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S86" s="15" t="s">
@@ -4817,15 +5249,21 @@
         <v>23</v>
       </c>
       <c r="Y86" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC86" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AF86" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH86" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A87" s="16" t="s">
         <v>58</v>
       </c>
@@ -4837,22 +5275,22 @@
       </c>
       <c r="N87" s="19"/>
       <c r="R87" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>x</v>
       </c>
       <c r="Y87" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA87" s="15" t="s">
         <v>23</v>
       </c>
       <c r="AC87" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A88" s="16" t="s">
         <v>58</v>
       </c>
@@ -4867,7 +5305,7 @@
         <v>23</v>
       </c>
       <c r="R88" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T88" s="15" t="s">
@@ -4883,15 +5321,15 @@
         <v>23</v>
       </c>
       <c r="Y88" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC88" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A89" s="16" t="s">
         <v>58</v>
       </c>
@@ -4906,19 +5344,19 @@
         <v>23</v>
       </c>
       <c r="R89" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y89" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC89" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A90" s="16" t="s">
         <v>58</v>
       </c>
@@ -4936,7 +5374,7 @@
         <v>23</v>
       </c>
       <c r="R90" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S90" s="15" t="s">
@@ -4946,15 +5384,21 @@
         <v>23</v>
       </c>
       <c r="Y90" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC90" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AF90" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH90" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A91" s="16" t="s">
         <v>58</v>
       </c>
@@ -4969,7 +5413,7 @@
         <v>23</v>
       </c>
       <c r="R91" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S91" s="15" t="s">
@@ -4979,15 +5423,21 @@
         <v>23</v>
       </c>
       <c r="Y91" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC91" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AF91" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH91" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A92" s="16" t="s">
         <v>58</v>
       </c>
@@ -5002,7 +5452,7 @@
         <v>23</v>
       </c>
       <c r="R92" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S92" s="15" t="s">
@@ -5018,7 +5468,7 @@
         <v>23</v>
       </c>
       <c r="Y92" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA92" s="15" t="s">
@@ -5028,14 +5478,20 @@
         <v>23</v>
       </c>
       <c r="AC92" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD92" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AF92" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH92" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A93" s="16" t="s">
         <v>58</v>
       </c>
@@ -5050,7 +5506,7 @@
         <v>23</v>
       </c>
       <c r="R93" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S93" s="15" t="s">
@@ -5066,18 +5522,24 @@
         <v>23</v>
       </c>
       <c r="Y93" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="AC93" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AE93" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AF93" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH93" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A94" s="16" t="s">
         <v>58</v>
       </c>
@@ -5092,22 +5554,28 @@
         <v>23</v>
       </c>
       <c r="R94" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V94" s="15" t="s">
         <v>23</v>
       </c>
       <c r="Y94" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC94" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AF94" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH94" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A95" s="16" t="s">
         <v>58</v>
       </c>
@@ -5122,7 +5590,7 @@
         <v>23</v>
       </c>
       <c r="R95" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S95" s="15" t="s">
@@ -5138,15 +5606,21 @@
         <v>23</v>
       </c>
       <c r="Y95" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC95" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AF95" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH95" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A96" s="16" t="s">
         <v>58</v>
       </c>
@@ -5164,7 +5638,7 @@
         <v>23</v>
       </c>
       <c r="R96" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S96" s="15" t="s">
@@ -5180,18 +5654,24 @@
         <v>23</v>
       </c>
       <c r="Y96" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="AC96" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AE96" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AG96" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH96" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A97" s="16" t="s">
         <v>58</v>
       </c>
@@ -5206,7 +5686,7 @@
         <v>23</v>
       </c>
       <c r="R97" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="W97" s="15" t="s">
@@ -5216,15 +5696,15 @@
         <v>23</v>
       </c>
       <c r="Y97" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC97" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A98" s="16" t="s">
         <v>58</v>
       </c>
@@ -5242,7 +5722,7 @@
         <v>23</v>
       </c>
       <c r="R98" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>x</v>
       </c>
       <c r="S98" s="15" t="s">
@@ -5258,18 +5738,24 @@
         <v>23</v>
       </c>
       <c r="Y98" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="AC98" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AE98" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AF98" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH98" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A99" s="16" t="s">
         <v>58</v>
       </c>
@@ -5284,7 +5770,7 @@
         <v>23</v>
       </c>
       <c r="R99" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S99" s="15" t="s">
@@ -5294,7 +5780,7 @@
         <v>23</v>
       </c>
       <c r="Y99" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA99" s="15" t="s">
@@ -5304,14 +5790,20 @@
         <v>23</v>
       </c>
       <c r="AC99" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD99" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AF99" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH99" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A100" s="16" t="s">
         <v>58</v>
       </c>
@@ -5326,7 +5818,7 @@
         <v>23</v>
       </c>
       <c r="R100" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S100" s="15" t="s">
@@ -5342,18 +5834,24 @@
         <v>23</v>
       </c>
       <c r="Y100" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="AC100" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AE100" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AF100" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH100" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A101" s="16" t="s">
         <v>58</v>
       </c>
@@ -5368,7 +5866,7 @@
       </c>
       <c r="N101" s="19"/>
       <c r="R101" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>x</v>
       </c>
       <c r="W101" s="15" t="s">
@@ -5378,18 +5876,18 @@
         <v>23</v>
       </c>
       <c r="Y101" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="AC101" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AE101" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A102" s="16" t="s">
         <v>58</v>
       </c>
@@ -5407,7 +5905,7 @@
         <v>23</v>
       </c>
       <c r="R102" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S102" s="15" t="s">
@@ -5423,18 +5921,21 @@
         <v>23</v>
       </c>
       <c r="Y102" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z102" s="15" t="s">
         <v>23</v>
       </c>
       <c r="AC102" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AH102" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A103" s="16" t="s">
         <v>58</v>
       </c>
@@ -5449,7 +5950,7 @@
         <v>23</v>
       </c>
       <c r="R103" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T103" s="15" t="s">
@@ -5465,18 +5966,21 @@
         <v>23</v>
       </c>
       <c r="Y103" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="AC103" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AE103" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AG103" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A104" s="16" t="s">
         <v>58</v>
       </c>
@@ -5491,7 +5995,7 @@
         <v>23</v>
       </c>
       <c r="R104" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S104" s="15" t="s">
@@ -5507,7 +6011,7 @@
         <v>23</v>
       </c>
       <c r="Y104" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z104" s="15" t="s">
@@ -5520,14 +6024,17 @@
         <v>23</v>
       </c>
       <c r="AC104" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD104" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AH104" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A105" s="16" t="s">
         <v>58</v>
       </c>
@@ -5542,7 +6049,7 @@
         <v>23</v>
       </c>
       <c r="R105" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>x</v>
       </c>
       <c r="S105" s="15" t="s">
@@ -5552,15 +6059,18 @@
         <v>23</v>
       </c>
       <c r="Y105" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC105" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AH105" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A106" s="16" t="s">
         <v>58</v>
       </c>
@@ -5575,7 +6085,7 @@
         <v>23</v>
       </c>
       <c r="R106" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S106" s="15" t="s">
@@ -5591,18 +6101,24 @@
         <v>23</v>
       </c>
       <c r="Y106" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="AC106" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AE106" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AF106" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH106" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A107" s="16" t="s">
         <v>58</v>
       </c>
@@ -5617,7 +6133,7 @@
         <v>23</v>
       </c>
       <c r="R107" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S107" s="15" t="s">
@@ -5633,7 +6149,7 @@
         <v>23</v>
       </c>
       <c r="Y107" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="AA107" s="15" t="s">
@@ -5643,7 +6159,7 @@
         <v>23</v>
       </c>
       <c r="AC107" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>x</v>
       </c>
       <c r="AD107" s="15" t="s">
@@ -5652,8 +6168,11 @@
       <c r="AE107" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AH107" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A108" s="16" t="s">
         <v>58</v>
       </c>
@@ -5671,7 +6190,7 @@
         <v>23</v>
       </c>
       <c r="R108" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>x</v>
       </c>
       <c r="S108" s="15" t="s">
@@ -5687,18 +6206,24 @@
         <v>23</v>
       </c>
       <c r="Y108" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="AC108" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AE108" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AF108" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH108" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A109" s="16" t="s">
         <v>58</v>
       </c>
@@ -5713,7 +6238,7 @@
         <v>23</v>
       </c>
       <c r="R109" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T109" s="15" t="s">
@@ -5723,15 +6248,15 @@
         <v>23</v>
       </c>
       <c r="Y109" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC109" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A110" s="16" t="s">
         <v>58</v>
       </c>
@@ -5746,7 +6271,7 @@
         <v>23</v>
       </c>
       <c r="R110" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T110" s="15" t="s">
@@ -5756,15 +6281,15 @@
         <v>23</v>
       </c>
       <c r="Y110" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC110" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A111" s="16" t="s">
         <v>58</v>
       </c>
@@ -5776,19 +6301,19 @@
       </c>
       <c r="N111" s="19"/>
       <c r="R111" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>x</v>
       </c>
       <c r="Y111" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC111" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A112" s="16" t="s">
         <v>123</v>
       </c>
@@ -5813,7 +6338,7 @@
         <v>23</v>
       </c>
       <c r="R112" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="W112" s="15" t="s">
@@ -5823,21 +6348,21 @@
         <v>23</v>
       </c>
       <c r="Y112" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="Z112" s="15" t="s">
         <v>23</v>
       </c>
       <c r="AC112" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AE112" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A113" s="16" t="s">
         <v>123</v>
       </c>
@@ -5861,7 +6386,7 @@
         <v>23</v>
       </c>
       <c r="R113" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>x</v>
       </c>
       <c r="W113" s="15" t="s">
@@ -5871,18 +6396,18 @@
         <v>23</v>
       </c>
       <c r="Y113" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="AC113" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AE113" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A114" s="16" t="s">
         <v>123</v>
       </c>
@@ -5906,7 +6431,7 @@
         <v>23</v>
       </c>
       <c r="R114" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>x</v>
       </c>
       <c r="W114" s="15" t="s">
@@ -5916,18 +6441,18 @@
         <v>23</v>
       </c>
       <c r="Y114" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="AC114" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AE114" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:31" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A115" s="16" t="s">
         <v>123</v>
       </c>
@@ -5953,7 +6478,7 @@
       <c r="O115" s="22"/>
       <c r="P115" s="22"/>
       <c r="R115" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>x</v>
       </c>
       <c r="S115" s="22"/>
@@ -5963,19 +6488,19 @@
       <c r="W115" s="22"/>
       <c r="X115" s="22"/>
       <c r="Y115" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z115" s="22"/>
       <c r="AA115" s="22"/>
       <c r="AB115" s="22"/>
       <c r="AC115" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD115" s="22"/>
     </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A116" s="16" t="s">
         <v>123</v>
       </c>
@@ -5997,7 +6522,7 @@
       <c r="M116" s="21"/>
       <c r="N116" s="19"/>
       <c r="R116" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>x</v>
       </c>
       <c r="W116" s="15" t="s">
@@ -6007,18 +6532,18 @@
         <v>23</v>
       </c>
       <c r="Y116" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="AC116" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AE116" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A117" s="16" t="s">
         <v>123</v>
       </c>
@@ -6043,7 +6568,7 @@
         <v>23</v>
       </c>
       <c r="R117" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S117" s="15" t="s">
@@ -6059,18 +6584,21 @@
         <v>23</v>
       </c>
       <c r="Y117" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="AC117" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AE117" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AH117" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A118" s="16" t="s">
         <v>123</v>
       </c>
@@ -6095,7 +6623,7 @@
         <v>23</v>
       </c>
       <c r="R118" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S118" s="15" t="s">
@@ -6111,18 +6639,21 @@
         <v>23</v>
       </c>
       <c r="Y118" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="AC118" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AE118" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AG118" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A119" s="16" t="s">
         <v>123</v>
       </c>
@@ -6147,7 +6678,7 @@
         <v>23</v>
       </c>
       <c r="R119" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S119" s="15" t="s">
@@ -6157,15 +6688,18 @@
         <v>23</v>
       </c>
       <c r="Y119" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC119" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="1:31" ht="29.5" x14ac:dyDescent="0.75">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AG119" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" spans="1:34" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A120" s="16" t="s">
         <v>123</v>
       </c>
@@ -6191,7 +6725,7 @@
       </c>
       <c r="P120" s="22"/>
       <c r="R120" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S120" s="22" t="s">
@@ -6205,19 +6739,22 @@
       <c r="W120" s="22"/>
       <c r="X120" s="22"/>
       <c r="Y120" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z120" s="22"/>
       <c r="AA120" s="22"/>
       <c r="AB120" s="22"/>
       <c r="AC120" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD120" s="22"/>
-    </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AG120" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A121" s="16" t="s">
         <v>123</v>
       </c>
@@ -6244,7 +6781,7 @@
       </c>
       <c r="O121" s="22"/>
       <c r="R121" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>x</v>
       </c>
       <c r="S121" s="22" t="s">
@@ -6254,15 +6791,18 @@
         <v>23</v>
       </c>
       <c r="Y121" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC121" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AF121" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="122" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A122" s="16" t="s">
         <v>134</v>
       </c>
@@ -6277,7 +6817,7 @@
         <v>23</v>
       </c>
       <c r="R122" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T122" s="15" t="s">
@@ -6293,15 +6833,15 @@
         <v>23</v>
       </c>
       <c r="Y122" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC122" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A123" s="16" t="s">
         <v>134</v>
       </c>
@@ -6318,7 +6858,7 @@
         <v>23</v>
       </c>
       <c r="R123" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>x</v>
       </c>
       <c r="W123" s="15" t="s">
@@ -6328,18 +6868,18 @@
         <v>23</v>
       </c>
       <c r="Y123" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="AC123" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AE123" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A124" s="16" t="s">
         <v>134</v>
       </c>
@@ -6354,7 +6894,7 @@
         <v>23</v>
       </c>
       <c r="R124" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S124" s="15" t="s">
@@ -6364,7 +6904,7 @@
         <v>23</v>
       </c>
       <c r="Y124" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA124" s="15" t="s">
@@ -6374,14 +6914,17 @@
         <v>23</v>
       </c>
       <c r="AC124" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD124" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AH124" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A125" s="16" t="s">
         <v>134</v>
       </c>
@@ -6396,7 +6939,7 @@
         <v>23</v>
       </c>
       <c r="R125" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S125" s="15" t="s">
@@ -6412,18 +6955,21 @@
         <v>23</v>
       </c>
       <c r="Y125" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z125" s="15" t="s">
         <v>23</v>
       </c>
       <c r="AC125" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AH125" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="126" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A126" s="16" t="s">
         <v>134</v>
       </c>
@@ -6449,7 +6995,7 @@
         <v>23</v>
       </c>
       <c r="R126" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S126" s="15" t="s">
@@ -6465,7 +7011,7 @@
         <v>23</v>
       </c>
       <c r="Y126" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z126" s="15" t="s">
@@ -6478,11 +7024,17 @@
         <v>23</v>
       </c>
       <c r="AC126" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AF126" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH126" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A127" s="16" t="s">
         <v>138</v>
       </c>
@@ -6509,7 +7061,7 @@
         <v>23</v>
       </c>
       <c r="R127" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="W127" s="15" t="s">
@@ -6519,21 +7071,21 @@
         <v>23</v>
       </c>
       <c r="Y127" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="Z127" s="15" t="s">
         <v>23</v>
       </c>
       <c r="AC127" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AE127" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A128" s="16" t="s">
         <v>138</v>
       </c>
@@ -6558,7 +7110,7 @@
         <v>23</v>
       </c>
       <c r="R128" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S128" s="15" t="s">
@@ -6574,18 +7126,21 @@
         <v>23</v>
       </c>
       <c r="Y128" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="AC128" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AE128" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AG128" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A129" s="16" t="s">
         <v>138</v>
       </c>
@@ -6609,30 +7164,24 @@
         <v>23</v>
       </c>
       <c r="R129" s="15" t="str">
-        <f t="shared" si="7"/>
-        <v>x</v>
-      </c>
-      <c r="X129" s="15" t="s">
-        <v>142</v>
+        <f t="shared" si="8"/>
+        <v>x</v>
       </c>
       <c r="Y129" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC129" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AE129" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A130" s="16" t="s">
         <v>138</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C130" s="15"/>
       <c r="D130" s="15"/>
@@ -6651,24 +7200,24 @@
         <v>23</v>
       </c>
       <c r="R130" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>x</v>
       </c>
       <c r="Y130" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC130" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A131" s="16" t="s">
         <v>138</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C131" s="15"/>
       <c r="D131" s="15"/>
@@ -6688,7 +7237,7 @@
         <v>23</v>
       </c>
       <c r="R131" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S131" s="15" t="s">
@@ -6704,23 +7253,29 @@
         <v>23</v>
       </c>
       <c r="Y131" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z131" s="15" t="s">
         <v>23</v>
       </c>
       <c r="AC131" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AF131" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH131" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="132" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A132" s="16" t="s">
         <v>138</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C132" s="15"/>
       <c r="D132" s="15"/>
@@ -6740,7 +7295,7 @@
         <v>23</v>
       </c>
       <c r="R132" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S132" s="15" t="s">
@@ -6753,23 +7308,26 @@
         <v>23</v>
       </c>
       <c r="Y132" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z132" s="15" t="s">
         <v>23</v>
       </c>
       <c r="AC132" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AF132" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A133" s="16" t="s">
         <v>138</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C133" s="15"/>
       <c r="D133" s="15"/>
@@ -6789,7 +7347,7 @@
         <v>23</v>
       </c>
       <c r="R133" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T133" s="15" t="s">
@@ -6799,20 +7357,20 @@
         <v>23</v>
       </c>
       <c r="Y133" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC133" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A134" s="16" t="s">
         <v>138</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C134" s="15"/>
       <c r="D134" s="15"/>
@@ -6831,7 +7389,7 @@
         <v>23</v>
       </c>
       <c r="R134" s="15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>x</v>
       </c>
       <c r="W134" s="15" t="s">
@@ -6841,23 +7399,23 @@
         <v>23</v>
       </c>
       <c r="Y134" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="AC134" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AE134" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A135" s="16" t="s">
         <v>138</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
@@ -6877,7 +7435,7 @@
         <v>23</v>
       </c>
       <c r="R135" s="15" t="str">
-        <f t="shared" ref="R135:R157" si="10" xml:space="preserve"> IF(OR(F135="x", J135="x"),"x", "")</f>
+        <f t="shared" ref="R135:R157" si="11" xml:space="preserve"> IF(OR(F135="x", J135="x"),"x", "")</f>
         <v/>
       </c>
       <c r="S135" s="15" t="s">
@@ -6893,23 +7451,26 @@
         <v>23</v>
       </c>
       <c r="Y135" s="19" t="str">
-        <f t="shared" ref="Y135:Y157" si="11" xml:space="preserve"> IF(AND($AE135="x", W135="x"), "x","")</f>
+        <f t="shared" ref="Y135:Y157" si="12" xml:space="preserve"> IF(AND($AE135="x", W135="x"), "x","")</f>
         <v/>
       </c>
       <c r="Z135" s="15" t="s">
         <v>23</v>
       </c>
       <c r="AC135" s="19" t="str">
-        <f t="shared" ref="AC135:AC157" si="12" xml:space="preserve"> IF(AND($AE135="x", AA135="x"), "x","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" ref="AC135:AC157" si="13" xml:space="preserve"> IF(AND($AE135="x", AA135="x"), "x","")</f>
+        <v/>
+      </c>
+      <c r="AF135" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="136" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A136" s="16" t="s">
         <v>138</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C136" s="15"/>
       <c r="D136" s="15"/>
@@ -6929,7 +7490,7 @@
         <v>23</v>
       </c>
       <c r="R136" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="T136" s="15" t="s">
@@ -6945,23 +7506,23 @@
         <v>23</v>
       </c>
       <c r="Y136" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Z136" s="15" t="s">
         <v>23</v>
       </c>
       <c r="AC136" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A137" s="16" t="s">
         <v>138</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C137" s="15"/>
       <c r="D137" s="15"/>
@@ -6981,7 +7542,7 @@
         <v>23</v>
       </c>
       <c r="R137" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="T137" s="15" t="s">
@@ -6997,23 +7558,23 @@
         <v>23</v>
       </c>
       <c r="Y137" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Z137" s="15" t="s">
         <v>23</v>
       </c>
       <c r="AC137" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A138" s="16" t="s">
         <v>138</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C138" s="15"/>
       <c r="D138" s="15"/>
@@ -7033,7 +7594,7 @@
         <v>23</v>
       </c>
       <c r="R138" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="S138" s="15" t="s">
@@ -7046,23 +7607,26 @@
         <v>23</v>
       </c>
       <c r="Y138" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Z138" s="15" t="s">
         <v>23</v>
       </c>
       <c r="AC138" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AH138" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="139" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A139" s="16" t="s">
         <v>138</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C139" s="15"/>
       <c r="D139" s="15"/>
@@ -7082,7 +7646,7 @@
         <v>23</v>
       </c>
       <c r="R139" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="T139" s="15" t="s">
@@ -7098,23 +7662,23 @@
         <v>23</v>
       </c>
       <c r="Y139" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>x</v>
       </c>
       <c r="AC139" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE139" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A140" s="16" t="s">
         <v>138</v>
       </c>
       <c r="B140" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C140" s="15"/>
       <c r="D140" s="15"/>
@@ -7133,7 +7697,7 @@
         <v>23</v>
       </c>
       <c r="R140" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
       <c r="W140" s="15" t="s">
@@ -7143,7 +7707,7 @@
         <v>23</v>
       </c>
       <c r="Y140" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>x</v>
       </c>
       <c r="Z140" s="15" t="s">
@@ -7153,7 +7717,7 @@
         <v>23</v>
       </c>
       <c r="AC140" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>x</v>
       </c>
       <c r="AD140" s="15" t="s">
@@ -7163,12 +7727,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A141" s="16" t="s">
         <v>138</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C141" s="15"/>
       <c r="D141" s="15"/>
@@ -7185,24 +7749,24 @@
       <c r="M141" s="15"/>
       <c r="N141" s="19"/>
       <c r="R141" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
       <c r="Y141" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC141" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A142" s="16" t="s">
         <v>138</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C142" s="15"/>
       <c r="D142" s="15"/>
@@ -7219,24 +7783,24 @@
       <c r="M142" s="15"/>
       <c r="N142" s="19"/>
       <c r="R142" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
       <c r="Y142" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC142" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A143" s="16" t="s">
         <v>138</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C143" s="15"/>
       <c r="D143" s="15"/>
@@ -7253,24 +7817,24 @@
       <c r="M143" s="15"/>
       <c r="N143" s="19"/>
       <c r="R143" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
       <c r="Y143" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC143" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="144" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A144" s="16" t="s">
         <v>138</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C144" s="15"/>
       <c r="D144" s="15"/>
@@ -7287,24 +7851,24 @@
       <c r="M144" s="15"/>
       <c r="N144" s="19"/>
       <c r="R144" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
       <c r="Y144" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC144" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="145" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A145" s="16" t="s">
         <v>138</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C145" s="15"/>
       <c r="D145" s="15"/>
@@ -7322,7 +7886,7 @@
         <v>23</v>
       </c>
       <c r="R145" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W145" s="15" t="s">
@@ -7332,23 +7896,23 @@
         <v>23</v>
       </c>
       <c r="Y145" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>x</v>
       </c>
       <c r="AC145" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE145" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="146" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A146" s="16" t="s">
         <v>138</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C146" s="15"/>
       <c r="D146" s="15"/>
@@ -7368,7 +7932,7 @@
         <v>23</v>
       </c>
       <c r="R146" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W146" s="15" t="s">
@@ -7378,23 +7942,23 @@
         <v>23</v>
       </c>
       <c r="Y146" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>x</v>
       </c>
       <c r="AC146" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE146" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A147" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B147" s="22" t="s">
         <v>160</v>
-      </c>
-      <c r="B147" s="22" t="s">
-        <v>161</v>
       </c>
       <c r="C147" s="22"/>
       <c r="D147" s="22"/>
@@ -7414,7 +7978,7 @@
       </c>
       <c r="O147" s="17"/>
       <c r="R147" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
       <c r="T147" s="15" t="s">
@@ -7424,26 +7988,26 @@
         <v>23</v>
       </c>
       <c r="Y147" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AA147" s="15" t="s">
         <v>23</v>
       </c>
       <c r="AC147" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AD147" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A148" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C148" s="15"/>
       <c r="D148" s="15"/>
@@ -7464,7 +8028,7 @@
         <v>23</v>
       </c>
       <c r="R148" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W148" s="15" t="s">
@@ -7474,20 +8038,20 @@
         <v>23</v>
       </c>
       <c r="Y148" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC148" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="149" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A149" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B149" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C149" s="22" t="s">
         <v>23</v>
@@ -7507,7 +8071,7 @@
         <v>23</v>
       </c>
       <c r="R149" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="S149" s="15" t="s">
@@ -7523,54 +8087,57 @@
         <v>23</v>
       </c>
       <c r="Y149" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>x</v>
       </c>
       <c r="AC149" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE149" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="150" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A150" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="B150" s="51" t="s">
-        <v>164</v>
-      </c>
-      <c r="J150" s="51" t="s">
+      <c r="AH149" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="150" spans="1:34" s="27" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A150" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B150" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="J150" s="27" t="s">
         <v>23</v>
       </c>
       <c r="N150" s="19"/>
       <c r="O150" s="17"/>
-      <c r="R150" s="51" t="str">
-        <f t="shared" si="10"/>
-        <v>x</v>
-      </c>
-      <c r="W150" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="X150" s="51" t="s">
+      <c r="R150" s="27" t="str">
+        <f t="shared" si="11"/>
+        <v>x</v>
+      </c>
+      <c r="W150" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="X150" s="27" t="s">
         <v>23</v>
       </c>
       <c r="Y150" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC150" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A151" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B151" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C151" s="22"/>
       <c r="D151" s="22"/>
@@ -7589,24 +8156,24 @@
         <v>23</v>
       </c>
       <c r="R151" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
       <c r="Y151" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC151" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A152" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B152" s="15" t="s">
         <v>166</v>
-      </c>
-      <c r="B152" s="15" t="s">
-        <v>167</v>
       </c>
       <c r="C152" s="15"/>
       <c r="D152" s="15"/>
@@ -7628,7 +8195,7 @@
       <c r="P152" s="17"/>
       <c r="Q152" s="17"/>
       <c r="R152" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="T152" s="15" t="s">
@@ -7639,20 +8206,20 @@
         <v>23</v>
       </c>
       <c r="Y152" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC152" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A153" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B153" s="15" t="s">
         <v>168</v>
-      </c>
-      <c r="B153" s="15" t="s">
-        <v>169</v>
       </c>
       <c r="C153" s="15"/>
       <c r="D153" s="15"/>
@@ -7671,24 +8238,24 @@
         <v>23</v>
       </c>
       <c r="R153" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
       <c r="Y153" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC153" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A154" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C154" s="15"/>
       <c r="D154" s="15"/>
@@ -7707,24 +8274,24 @@
         <v>23</v>
       </c>
       <c r="R154" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
       <c r="Y154" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC154" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A155" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C155" s="15" t="s">
         <v>23</v>
@@ -7745,7 +8312,7 @@
         <v>23</v>
       </c>
       <c r="R155" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="S155" s="15" t="s">
@@ -7761,26 +8328,32 @@
         <v>23</v>
       </c>
       <c r="Y155" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>x</v>
       </c>
       <c r="AB155" s="15" t="s">
         <v>23</v>
       </c>
       <c r="AC155" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE155" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="156" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="AF155" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH155" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="156" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A156" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C156" s="15"/>
       <c r="D156" s="15"/>
@@ -7799,24 +8372,24 @@
         <v>23</v>
       </c>
       <c r="R156" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
       <c r="Y156" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC156" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="157" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A157" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C157" s="15"/>
       <c r="D157" s="15"/>
@@ -7835,7 +8408,7 @@
         <v>23</v>
       </c>
       <c r="R157" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
       <c r="W157" s="15" t="s">
@@ -7845,18 +8418,18 @@
         <v>23</v>
       </c>
       <c r="Y157" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>x</v>
       </c>
       <c r="AC157" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE157" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:34" x14ac:dyDescent="0.75">
       <c r="C158" s="15"/>
       <c r="D158" s="15"/>
       <c r="E158" s="15"/>
@@ -7870,14 +8443,14 @@
       <c r="M158" s="15"/>
       <c r="N158" s="19"/>
       <c r="R158" s="15" t="str">
-        <f t="shared" ref="R158" si="13" xml:space="preserve"> IF(J158="x","x", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="1:31" x14ac:dyDescent="0.75">
+        <f t="shared" ref="R158" si="14" xml:space="preserve"> IF(J158="x","x", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:34" x14ac:dyDescent="0.75">
       <c r="N159" s="19"/>
     </row>
-    <row r="160" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:34" x14ac:dyDescent="0.75">
       <c r="N160" s="19"/>
     </row>
     <row r="161" spans="14:14" x14ac:dyDescent="0.75">
@@ -8094,37 +8667,48 @@
       <c r="N231" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S2:V2"/>
+  <mergeCells count="18">
     <mergeCell ref="W2:Z2"/>
     <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="C1:M1"/>
     <mergeCell ref="O1:AD1"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:I3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S2:V2"/>
   </mergeCells>
-  <conditionalFormatting sqref="W2 N4:N5 C2:M5 O2:V5 AE2:AE5 W3:AD5">
-    <cfRule type="expression" dxfId="2" priority="1">
+  <conditionalFormatting sqref="W2 N4:N5 C2:M5 O2:V5 AE2:AE5 W3:AD5 AF3:AH3">
+    <cfRule type="expression" dxfId="16" priority="3">
       <formula xml:space="preserve"> OR(#REF!="x",#REF!="x", #REF!="x",#REF!="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X3 Z3:AB3 AD3">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="X3 Z3:AB3 AD3 AF3:AH3">
+    <cfRule type="expression" dxfId="15" priority="4">
       <formula xml:space="preserve"> OR(#REF!="x",#REF!="x", #REF!="x",#REF!="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="14" priority="5">
+      <formula xml:space="preserve"> OR(#REF!="x",#REF!="x", #REF!="x",#REF!="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF4:AH4">
+    <cfRule type="expression" dxfId="13" priority="2">
+      <formula xml:space="preserve"> OR(#REF!="x",#REF!="x", #REF!="x",#REF!="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF5:AH5">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula xml:space="preserve"> OR(#REF!="x",#REF!="x", #REF!="x",#REF!="x")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/assets/data/ActivityProperties.xlsx
+++ b/assets/data/ActivityProperties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fariakn\Research\website\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8672CEEA-E858-4302-89EA-B3D1CE2C4EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFD00BE-F5BB-40C7-942A-B71AAE102030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3375" windowWidth="14480" windowHeight="8230" xr2:uid="{5A6A9480-72B9-4CEA-854E-7F7DAE7A1FF6}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{5A6A9480-72B9-4CEA-854E-7F7DAE7A1FF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Breakdown" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>Manifest</t>
   </si>
   <si>
-    <t>Platform enforced</t>
-  </si>
-  <si>
     <t>Mandatory</t>
   </si>
   <si>
@@ -570,9 +567,6 @@
     <t>Disabled</t>
   </si>
   <si>
-    <t>Exported</t>
-  </si>
-  <si>
     <t>Activation Location</t>
   </si>
   <si>
@@ -591,9 +585,6 @@
     <t xml:space="preserve">Other Android </t>
   </si>
   <si>
-    <t>Code-triggered</t>
-  </si>
-  <si>
     <t>Primitive</t>
   </si>
   <si>
@@ -607,6 +598,15 @@
   </si>
   <si>
     <t xml:space="preserve">- int sdk version, installed apps as list of strings, </t>
+  </si>
+  <si>
+    <t>Code-defined</t>
+  </si>
+  <si>
+    <t>Resourcde-defined</t>
+  </si>
+  <si>
+    <t>Export status</t>
   </si>
 </sst>
 </file>
@@ -881,6 +881,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -917,9 +935,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -947,110 +962,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -1398,8 +1314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6182992C-E3DA-42E5-82C3-6D3E3F6303A0}">
   <dimension ref="A1:AI231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+    <sheetView tabSelected="1" zoomScale="59" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1426,44 +1342,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
       <c r="AE1"/>
       <c r="AF1"/>
       <c r="AG1"/>
@@ -1471,101 +1387,101 @@
       <c r="AI1"/>
     </row>
     <row r="2" spans="1:35" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A2" s="35"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="40" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="41" t="s">
+      <c r="H2" s="47"/>
+      <c r="I2" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="H2" s="41"/>
-      <c r="I2" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="41" t="s">
+      <c r="M2" s="47"/>
+      <c r="N2" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="O2" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="50" t="s">
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="O2" s="45" t="s">
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="46" t="s">
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="57"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="36"/>
       <c r="AE2" s="12"/>
-      <c r="AF2" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="33"/>
+      <c r="AF2" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="39"/>
     </row>
     <row r="3" spans="1:35" ht="45" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A3" s="36"/>
-      <c r="B3" s="39"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="44"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="49"/>
       <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
       <c r="L3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="51"/>
+      <c r="N3" s="56"/>
       <c r="O3" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>13</v>
@@ -1574,52 +1490,52 @@
         <v>14</v>
       </c>
       <c r="S3" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z3" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="T3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="W3" s="8" t="s">
+      <c r="AA3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="X3" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="Z3" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA3" s="11" t="s">
+      <c r="AB3" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD3" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="AB3" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="AD3" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="AE3" s="12" t="s">
-        <v>20</v>
-      </c>
       <c r="AF3" s="28" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AG3" s="29" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AH3" s="30" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.75">
@@ -1888,16 +1804,16 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>22</v>
-      </c>
       <c r="J6" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O6" s="17"/>
       <c r="R6" s="15" t="str">
@@ -1905,10 +1821,10 @@
         <v>x</v>
       </c>
       <c r="W6" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X6" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y6" s="19" t="str">
         <f xml:space="preserve"> IF(AND($AE6="x", W6="x"), "x","")</f>
@@ -1926,41 +1842,41 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A7" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N7" s="18"/>
       <c r="O7" s="17"/>
       <c r="P7" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R7" s="15" t="str">
         <f t="shared" ref="R7:R70" si="5" xml:space="preserve"> IF(OR(F7="x", J7="x"),"x", "")</f>
         <v/>
       </c>
       <c r="S7" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U7" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W7" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X7" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y7" s="19" t="str">
         <f t="shared" ref="Y7:Y70" si="6" xml:space="preserve"> IF(AND($AE7="x", W7="x"), "x","")</f>
         <v/>
       </c>
       <c r="Z7" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC7" s="19" t="str">
         <f t="shared" ref="AC7:AC70" si="7" xml:space="preserve"> IF(AND($AE7="x", AA7="x"), "x","")</f>
@@ -1968,27 +1884,27 @@
       </c>
       <c r="AE7" s="19"/>
       <c r="AF7" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH7" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A8" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N8" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O8" s="17"/>
       <c r="R8" s="15" t="str">
@@ -1996,10 +1912,10 @@
         <v>x</v>
       </c>
       <c r="W8" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X8" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y8" s="19" t="str">
         <f t="shared" si="6"/>
@@ -2010,31 +1926,31 @@
         <v/>
       </c>
       <c r="AE8" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A9" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R9" s="15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S9" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V9" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y9" s="19" t="str">
         <f t="shared" si="6"/>
@@ -2046,31 +1962,31 @@
       </c>
       <c r="AE9" s="19"/>
       <c r="AF9" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A10" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R10" s="15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S10" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V10" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y10" s="19" t="str">
         <f t="shared" si="6"/>
@@ -2082,34 +1998,34 @@
       </c>
       <c r="AE10" s="19"/>
       <c r="AF10" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH10" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A11" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O11" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R11" s="15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S11" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V11" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y11" s="19" t="str">
         <f t="shared" si="6"/>
@@ -2121,141 +2037,141 @@
       </c>
       <c r="AE11" s="19"/>
       <c r="AF11" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH11" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>30</v>
-      </c>
       <c r="D12" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O12" s="17"/>
       <c r="P12" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R12" s="15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S12" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U12" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W12" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y12" s="19" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z12" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC12" s="19" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF12" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG12" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A13" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N13" s="19"/>
       <c r="O13" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R13" s="15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S13" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U13" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W13" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X13" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y13" s="19" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z13" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA13" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB13" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC13" s="19" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF13" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH13" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A14" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N14" s="19"/>
       <c r="O14" s="17"/>
       <c r="P14" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R14" s="15" t="str">
         <f t="shared" si="5"/>
         <v>x</v>
       </c>
       <c r="S14" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U14" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W14" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X14" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y14" s="19" t="str">
         <f t="shared" si="6"/>
@@ -2266,24 +2182,24 @@
         <v/>
       </c>
       <c r="AE14" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG14" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A15" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N15" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O15" s="17"/>
       <c r="R15" s="15" t="str">
@@ -2291,10 +2207,10 @@
         <v/>
       </c>
       <c r="T15" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V15" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y15" s="19" t="str">
         <f t="shared" si="6"/>
@@ -2307,27 +2223,27 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A16" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N16" s="18"/>
       <c r="O16" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R16" s="15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S16" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V16" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y16" s="19" t="str">
         <f t="shared" si="6"/>
@@ -2338,125 +2254,125 @@
         <v/>
       </c>
       <c r="AF16" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A17" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N17" s="18"/>
       <c r="O17" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R17" s="15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S17" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U17" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y17" s="19" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA17" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC17" s="19" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD17" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH17" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A18" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N18" s="18"/>
       <c r="O18" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R18" s="15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S18" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U18" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y18" s="19" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA18" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC18" s="19" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD18" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH18" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A19" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N19" s="18"/>
       <c r="O19" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R19" s="15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S19" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U19" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W19" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X19" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y19" s="19" t="str">
         <f t="shared" si="6"/>
@@ -2467,189 +2383,189 @@
         <v/>
       </c>
       <c r="AD19" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE19" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH19" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A20" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N20" s="18"/>
       <c r="O20" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R20" s="15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S20" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U20" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W20" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X20" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y20" s="19" t="str">
         <f t="shared" si="6"/>
         <v>x</v>
       </c>
       <c r="AA20" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC20" s="19" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="AD20" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE20" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH20" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A21" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N21" s="18"/>
       <c r="O21" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R21" s="15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S21" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U21" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y21" s="19" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA21" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC21" s="19" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD21" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG21" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH21" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A22" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R22" s="15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S22" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U22" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y22" s="19" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA22" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB22" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC22" s="19" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD22" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG22" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH22" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A23" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R23" s="15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S23" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V23" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y23" s="19" t="str">
         <f t="shared" si="6"/>
@@ -2660,90 +2576,90 @@
         <v/>
       </c>
       <c r="AG23" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH23" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A24" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R24" s="15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S24" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U24" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y24" s="19" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA24" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB24" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC24" s="19" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD24" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF24" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG24" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH24" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A25" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R25" s="15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S25" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V25" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W25" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X25" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y25" s="19" t="str">
         <f t="shared" si="6"/>
@@ -2754,40 +2670,40 @@
         <v/>
       </c>
       <c r="AE25" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF25" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG25" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH25" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A26" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R26" s="15" t="str">
         <f t="shared" si="5"/>
         <v>x</v>
       </c>
       <c r="W26" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X26" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y26" s="19" t="str">
         <f t="shared" si="6"/>
@@ -2800,29 +2716,29 @@
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A27" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R27" s="15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S27" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V27" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y27" s="19" t="str">
         <f t="shared" si="6"/>
@@ -2833,171 +2749,171 @@
         <v/>
       </c>
       <c r="AF27" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A28" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R28" s="15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S28" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U28" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y28" s="19" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA28" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC28" s="19" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD28" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF28" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH28" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A29" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R29" s="15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S29" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U29" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W29" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X29" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y29" s="19" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA29" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC29" s="19" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD29" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF29" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH29" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A30" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O30" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R30" s="15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S30" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U30" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W30" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X30" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y30" s="19" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA30" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC30" s="19" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD30" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF30" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH30" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A31" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N31" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O31" s="17"/>
       <c r="R31" s="15" t="str">
@@ -3005,14 +2921,14 @@
         <v>x</v>
       </c>
       <c r="W31" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y31" s="19" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z31" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC31" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3021,28 +2937,28 @@
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A32" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K32" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N32" s="19"/>
       <c r="O32" s="17"/>
       <c r="P32" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R32" s="15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S32" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V32" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y32" s="19" t="str">
         <f t="shared" si="6"/>
@@ -3053,24 +2969,24 @@
         <v/>
       </c>
       <c r="AF32" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH32" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A33" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>49</v>
-      </c>
       <c r="J33" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N33" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O33" s="17"/>
       <c r="R33" s="15" t="str">
@@ -3078,14 +2994,14 @@
         <v>x</v>
       </c>
       <c r="W33" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y33" s="19" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z33" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC33" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3094,165 +3010,165 @@
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A34" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N34" s="19"/>
       <c r="O34" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R34" s="15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S34" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V34" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W34" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y34" s="19" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z34" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC34" s="19" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF34" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A35" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K35" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N35" s="19"/>
       <c r="O35" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R35" s="15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S35" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U35" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y35" s="19" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA35" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC35" s="19" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD35" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF35" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG35" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH35" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A36" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N36" s="19"/>
       <c r="O36" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R36" s="15" t="str">
         <f t="shared" si="5"/>
         <v>x</v>
       </c>
       <c r="S36" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U36" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W36" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X36" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y36" s="19" t="str">
         <f t="shared" si="6"/>
         <v>x</v>
       </c>
       <c r="AA36" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB36" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC36" s="19" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="AD36" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE36" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG36" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A37" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="18" t="s">
-        <v>54</v>
-      </c>
       <c r="E37" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N37" s="19"/>
       <c r="O37" s="17"/>
       <c r="Q37" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R37" s="15" t="str">
         <f t="shared" si="5"/>
@@ -3261,10 +3177,10 @@
       <c r="S37" s="18"/>
       <c r="T37" s="18"/>
       <c r="W37" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X37" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y37" s="19" t="str">
         <f t="shared" si="6"/>
@@ -3282,19 +3198,19 @@
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A38" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N38" s="19"/>
       <c r="O38" s="17"/>
       <c r="P38" s="18"/>
       <c r="Q38" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R38" s="15" t="str">
         <f t="shared" si="5"/>
@@ -3305,7 +3221,7 @@
       <c r="U38" s="18"/>
       <c r="V38" s="18"/>
       <c r="W38" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X38" s="18"/>
       <c r="Y38" s="19" t="str">
@@ -3313,7 +3229,7 @@
         <v/>
       </c>
       <c r="Z38" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA38" s="18"/>
       <c r="AB38" s="18"/>
@@ -3326,18 +3242,18 @@
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A39" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N39" s="19"/>
       <c r="O39" s="17"/>
       <c r="Q39" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R39" s="15" t="str">
         <f t="shared" si="5"/>
@@ -3346,10 +3262,10 @@
       <c r="S39" s="18"/>
       <c r="T39" s="18"/>
       <c r="W39" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X39" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y39" s="19" t="str">
         <f t="shared" si="6"/>
@@ -3367,34 +3283,34 @@
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A40" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N40" s="19"/>
       <c r="O40" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R40" s="15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S40" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T40" s="18"/>
       <c r="U40" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W40" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X40" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y40" s="19" t="str">
         <f t="shared" si="6"/>
@@ -3410,39 +3326,39 @@
       <c r="AD40" s="18"/>
       <c r="AE40" s="18"/>
       <c r="AH40" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A41" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K41" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N41" s="19"/>
       <c r="O41" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R41" s="15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S41" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T41" s="18"/>
       <c r="U41" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W41" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X41" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y41" s="19" t="str">
         <f t="shared" si="6"/>
@@ -3450,10 +3366,10 @@
       </c>
       <c r="Z41" s="18"/>
       <c r="AA41" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB41" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC41" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3462,39 +3378,39 @@
       <c r="AD41" s="18"/>
       <c r="AE41" s="18"/>
       <c r="AF41" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH41" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A42" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I42" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N42" s="19"/>
       <c r="O42" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R42" s="15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S42" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T42" s="18"/>
       <c r="V42" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W42" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X42" s="18"/>
       <c r="Y42" s="19" t="str">
@@ -3502,7 +3418,7 @@
         <v/>
       </c>
       <c r="Z42" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA42" s="18"/>
       <c r="AB42" s="18"/>
@@ -3513,36 +3429,36 @@
       <c r="AD42" s="18"/>
       <c r="AE42" s="18"/>
       <c r="AF42" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A43" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K43" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M43" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N43" s="19"/>
       <c r="O43" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R43" s="15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S43" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T43" s="18"/>
       <c r="U43" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W43" s="18"/>
       <c r="X43" s="18"/>
@@ -3552,7 +3468,7 @@
       </c>
       <c r="Z43" s="18"/>
       <c r="AA43" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB43" s="18"/>
       <c r="AC43" s="19" t="str">
@@ -3560,38 +3476,38 @@
         <v/>
       </c>
       <c r="AD43" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE43" s="18"/>
       <c r="AF43" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG43" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH43" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A44" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B44" s="15" t="s">
-        <v>59</v>
-      </c>
       <c r="J44" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N44" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R44" s="15" t="str">
         <f t="shared" si="5"/>
         <v>x</v>
       </c>
       <c r="W44" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y44" s="19" t="str">
         <f t="shared" si="6"/>
@@ -3604,120 +3520,120 @@
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A45" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N45" s="19"/>
       <c r="O45" s="17"/>
       <c r="Q45" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R45" s="15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S45" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U45" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W45" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X45" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y45" s="19" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z45" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC45" s="19" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AH45" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A46" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L46" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N46" s="19"/>
       <c r="P46" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R46" s="15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S46" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U46" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W46" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X46" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y46" s="19" t="str">
         <f t="shared" si="6"/>
         <v>x</v>
       </c>
       <c r="AA46" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC46" s="19" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="AD46" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE46" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH46" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A47" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J47" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N47" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R47" s="15" t="str">
         <f t="shared" si="5"/>
         <v>x</v>
       </c>
       <c r="W47" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y47" s="19" t="str">
         <f t="shared" si="6"/>
@@ -3728,23 +3644,23 @@
         <v/>
       </c>
       <c r="AE47" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A48" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N48" s="19"/>
       <c r="O48" s="17"/>
       <c r="P48" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q48" s="18"/>
       <c r="R48" s="15" t="str">
@@ -3754,10 +3670,10 @@
       <c r="U48" s="18"/>
       <c r="V48" s="18"/>
       <c r="W48" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X48" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y48" s="19" t="str">
         <f t="shared" si="6"/>
@@ -3771,40 +3687,40 @@
         <v/>
       </c>
       <c r="AD48" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE48" s="18"/>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A49" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N49" s="19"/>
       <c r="O49" s="17"/>
       <c r="Q49" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R49" s="15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S49" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V49" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W49" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X49" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y49" s="19" t="str">
         <f t="shared" si="6"/>
@@ -3815,24 +3731,24 @@
         <v/>
       </c>
       <c r="AF49" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG49" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A50" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J50" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N50" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O50" s="17"/>
       <c r="R50" s="15" t="str">
@@ -3840,7 +3756,7 @@
         <v>x</v>
       </c>
       <c r="W50" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y50" s="19" t="str">
         <f t="shared" si="6"/>
@@ -3851,32 +3767,32 @@
         <v/>
       </c>
       <c r="AE50" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A51" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K51" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N51" s="19"/>
       <c r="O51" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R51" s="15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S51" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U51" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W51" s="20"/>
       <c r="X51" s="20"/>
@@ -3886,7 +3802,7 @@
       </c>
       <c r="Z51" s="20"/>
       <c r="AA51" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB51" s="20"/>
       <c r="AC51" s="19" t="str">
@@ -3894,43 +3810,43 @@
         <v/>
       </c>
       <c r="AD51" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE51" s="20" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AF51" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG51" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH51" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A52" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J52" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N52" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R52" s="15" t="str">
         <f t="shared" si="5"/>
         <v>x</v>
       </c>
       <c r="W52" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X52" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y52" s="19" t="str">
         <f t="shared" si="6"/>
@@ -3943,17 +3859,17 @@
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A53" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L53" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N53" s="19"/>
       <c r="O53" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R53" s="15" t="str">
         <f t="shared" si="5"/>
@@ -3970,27 +3886,27 @@
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A54" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L54" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N54" s="19"/>
       <c r="O54" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R54" s="15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S54" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V54" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y54" s="19" t="str">
         <f t="shared" si="6"/>
@@ -4001,32 +3917,32 @@
         <v/>
       </c>
       <c r="AF54" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A55" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L55" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N55" s="19"/>
       <c r="O55" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R55" s="15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S55" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V55" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y55" s="19" t="str">
         <f t="shared" si="6"/>
@@ -4037,41 +3953,41 @@
         <v/>
       </c>
       <c r="AF55" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH55" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A56" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L56" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N56" s="19"/>
       <c r="O56" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R56" s="15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S56" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U56" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W56" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X56" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y56" s="19" t="str">
         <f t="shared" si="6"/>
@@ -4082,32 +3998,32 @@
         <v/>
       </c>
       <c r="AF56" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A57" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L57" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N57" s="19"/>
       <c r="O57" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R57" s="15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S57" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V57" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y57" s="19" t="str">
         <f t="shared" si="6"/>
@@ -4118,21 +4034,21 @@
         <v/>
       </c>
       <c r="AF57" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH57" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A58" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J58" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N58" s="19"/>
       <c r="R58" s="15" t="str">
@@ -4140,17 +4056,17 @@
         <v>x</v>
       </c>
       <c r="W58" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X58" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y58" s="19" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z58" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC58" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4159,27 +4075,27 @@
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A59" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L59" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N59" s="19"/>
       <c r="O59" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R59" s="15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="T59" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V59" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y59" s="19" t="str">
         <f t="shared" si="6"/>
@@ -4192,27 +4108,27 @@
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A60" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L60" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N60" s="19"/>
       <c r="O60" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R60" s="15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="T60" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V60" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y60" s="19" t="str">
         <f t="shared" si="6"/>
@@ -4225,16 +4141,16 @@
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A61" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J61" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L61" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N61" s="19"/>
       <c r="R61" s="15" t="str">
@@ -4242,41 +4158,41 @@
         <v>x</v>
       </c>
       <c r="W61" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X61" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y61" s="19" t="str">
         <f t="shared" si="6"/>
         <v>x</v>
       </c>
       <c r="AA61" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB61" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC61" s="19" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="AD61" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE61" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A62" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J62" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N62" s="19"/>
       <c r="R62" s="15" t="str">
@@ -4284,41 +4200,41 @@
         <v>x</v>
       </c>
       <c r="W62" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X62" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y62" s="19" t="str">
         <f t="shared" si="6"/>
         <v>x</v>
       </c>
       <c r="AA62" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB62" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC62" s="19" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="AD62" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE62" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A63" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J63" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N63" s="19"/>
       <c r="R63" s="15" t="str">
@@ -4326,41 +4242,41 @@
         <v>x</v>
       </c>
       <c r="W63" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X63" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y63" s="19" t="str">
         <f t="shared" si="6"/>
         <v>x</v>
       </c>
       <c r="AA63" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB63" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC63" s="19" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="AD63" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE63" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A64" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J64" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N64" s="19"/>
       <c r="R64" s="15" t="str">
@@ -4368,41 +4284,41 @@
         <v>x</v>
       </c>
       <c r="W64" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X64" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y64" s="19" t="str">
         <f t="shared" si="6"/>
         <v>x</v>
       </c>
       <c r="AA64" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB64" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC64" s="19" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="AD64" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE64" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A65" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J65" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N65" s="19"/>
       <c r="R65" s="15" t="str">
@@ -4410,41 +4326,41 @@
         <v>x</v>
       </c>
       <c r="W65" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X65" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y65" s="19" t="str">
         <f t="shared" si="6"/>
         <v>x</v>
       </c>
       <c r="AA65" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB65" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC65" s="19" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="AD65" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE65" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A66" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J66" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N66" s="19"/>
       <c r="R66" s="15" t="str">
@@ -4452,41 +4368,41 @@
         <v>x</v>
       </c>
       <c r="W66" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X66" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y66" s="19" t="str">
         <f t="shared" si="6"/>
         <v>x</v>
       </c>
       <c r="AA66" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB66" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC66" s="19" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="AD66" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE66" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A67" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J67" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N67" s="19"/>
       <c r="R67" s="15" t="str">
@@ -4498,28 +4414,28 @@
         <v/>
       </c>
       <c r="AA67" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB67" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC67" s="19" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD67" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A68" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J68" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N68" s="19"/>
       <c r="R68" s="15" t="str">
@@ -4527,41 +4443,41 @@
         <v>x</v>
       </c>
       <c r="W68" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X68" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y68" s="19" t="str">
         <f t="shared" si="6"/>
         <v>x</v>
       </c>
       <c r="AA68" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB68" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC68" s="19" t="str">
         <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="AD68" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE68" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A69" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J69" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N69" s="19"/>
       <c r="R69" s="15" t="str">
@@ -4569,10 +4485,10 @@
         <v>x</v>
       </c>
       <c r="W69" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X69" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y69" s="19" t="str">
         <f t="shared" si="6"/>
@@ -4585,13 +4501,13 @@
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A70" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J70" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N70" s="19"/>
       <c r="R70" s="15" t="str">
@@ -4599,16 +4515,16 @@
         <v>x</v>
       </c>
       <c r="T70" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U70" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W70" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X70" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y70" s="19" t="str">
         <f t="shared" si="6"/>
@@ -4621,13 +4537,13 @@
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A71" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J71" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N71" s="19"/>
       <c r="O71" s="17"/>
@@ -4640,17 +4556,17 @@
       <c r="U71" s="17"/>
       <c r="V71" s="17"/>
       <c r="W71" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X71" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y71" s="19" t="str">
         <f t="shared" ref="Y71:Y134" si="9" xml:space="preserve"> IF(AND($AE71="x", W71="x"), "x","")</f>
         <v/>
       </c>
       <c r="Z71" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA71" s="17"/>
       <c r="AB71" s="17"/>
@@ -4663,26 +4579,26 @@
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A72" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J72" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N72" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R72" s="15" t="str">
         <f t="shared" si="8"/>
         <v>x</v>
       </c>
       <c r="W72" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X72" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y72" s="19" t="str">
         <f t="shared" si="9"/>
@@ -4693,32 +4609,32 @@
         <v/>
       </c>
       <c r="AE72" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A73" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L73" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N73" s="19"/>
       <c r="O73" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R73" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S73" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V73" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y73" s="19" t="str">
         <f t="shared" si="9"/>
@@ -4729,32 +4645,32 @@
         <v/>
       </c>
       <c r="AF73" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH73" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A74" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L74" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N74" s="19"/>
       <c r="O74" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R74" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V74" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y74" s="19" t="str">
         <f t="shared" si="9"/>
@@ -4767,171 +4683,171 @@
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A75" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L75" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N75" s="19"/>
       <c r="O75" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R75" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T75" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U75" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y75" s="19" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA75" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB75" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC75" s="19" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD75" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A76" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L76" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N76" s="19"/>
       <c r="O76" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R76" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T76" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U76" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y76" s="19" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA76" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB76" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC76" s="19" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD76" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A77" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G77" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N77" s="19"/>
       <c r="O77" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R77" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S77" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U77" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W77" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X77" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y77" s="19" t="str">
         <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="Z77" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA77" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC77" s="19" t="str">
         <f t="shared" si="10"/>
         <v>x</v>
       </c>
       <c r="AD77" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE77" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF77" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH77" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A78" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L78" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N78" s="19"/>
       <c r="O78" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R78" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T78" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V78" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y78" s="19" t="str">
         <f t="shared" si="9"/>
@@ -4944,17 +4860,17 @@
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A79" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L79" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N79" s="19"/>
       <c r="O79" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R79" s="15" t="str">
         <f t="shared" si="8"/>
@@ -4969,108 +4885,108 @@
         <v/>
       </c>
       <c r="AH79" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A80" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L80" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N80" s="19"/>
       <c r="O80" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R80" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S80" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V80" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W80" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y80" s="19" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z80" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC80" s="19" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AF80" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH80" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A81" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L81" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N81" s="19"/>
       <c r="O81" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R81" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S81" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V81" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W81" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y81" s="19" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z81" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC81" s="19" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AF81" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH81" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A82" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J82" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N82" s="19"/>
       <c r="R82" s="15" t="str">
@@ -5078,10 +4994,10 @@
         <v>x</v>
       </c>
       <c r="W82" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X82" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y82" s="19" t="str">
         <f t="shared" si="9"/>
@@ -5094,81 +5010,81 @@
     </row>
     <row r="83" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A83" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H83" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N83" s="19"/>
       <c r="O83" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R83" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S83" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U83" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W83" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X83" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y83" s="19" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z83" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC83" s="19" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AF83" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH83" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A84" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L84" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N84" s="19"/>
       <c r="O84" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R84" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T84" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V84" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W84" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X84" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y84" s="19" t="str">
         <f t="shared" si="9"/>
@@ -5181,72 +5097,72 @@
     </row>
     <row r="85" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A85" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L85" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N85" s="19"/>
       <c r="O85" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R85" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T85" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U85" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y85" s="19" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA85" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB85" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC85" s="19" t="str">
         <f t="shared" si="10"/>
         <v>x</v>
       </c>
       <c r="AD85" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE85" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A86" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L86" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N86" s="19"/>
       <c r="O86" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R86" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S86" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V86" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y86" s="19" t="str">
         <f t="shared" si="9"/>
@@ -5257,21 +5173,21 @@
         <v/>
       </c>
       <c r="AF86" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH86" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A87" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J87" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N87" s="19"/>
       <c r="R87" s="15" t="str">
@@ -5283,7 +5199,7 @@
         <v/>
       </c>
       <c r="AA87" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC87" s="19" t="str">
         <f t="shared" si="10"/>
@@ -5292,33 +5208,33 @@
     </row>
     <row r="88" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A88" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L88" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N88" s="19"/>
       <c r="O88" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R88" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T88" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V88" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W88" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X88" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y88" s="19" t="str">
         <f t="shared" si="9"/>
@@ -5331,17 +5247,17 @@
     </row>
     <row r="89" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A89" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H89" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N89" s="19"/>
       <c r="O89" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R89" s="15" t="str">
         <f t="shared" si="8"/>
@@ -5358,30 +5274,30 @@
     </row>
     <row r="90" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A90" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H90" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K90" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N90" s="19"/>
       <c r="O90" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R90" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S90" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V90" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y90" s="19" t="str">
         <f t="shared" si="9"/>
@@ -5392,35 +5308,35 @@
         <v/>
       </c>
       <c r="AF90" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH90" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A91" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N91" s="19"/>
       <c r="O91" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R91" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S91" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U91" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y91" s="19" t="str">
         <f t="shared" si="9"/>
@@ -5431,95 +5347,95 @@
         <v/>
       </c>
       <c r="AF91" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH91" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A92" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H92" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N92" s="19"/>
       <c r="O92" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R92" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S92" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U92" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W92" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X92" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y92" s="19" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA92" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB92" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC92" s="19" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD92" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF92" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH92" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A93" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L93" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N93" s="19"/>
       <c r="O93" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R93" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S93" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U93" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W93" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X93" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y93" s="19" t="str">
         <f t="shared" si="9"/>
@@ -5530,35 +5446,35 @@
         <v/>
       </c>
       <c r="AE93" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF93" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH93" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A94" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L94" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N94" s="19"/>
       <c r="O94" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R94" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V94" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y94" s="19" t="str">
         <f t="shared" si="9"/>
@@ -5569,41 +5485,41 @@
         <v/>
       </c>
       <c r="AF94" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH94" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A95" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H95" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N95" s="19"/>
       <c r="O95" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R95" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S95" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U95" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W95" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X95" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y95" s="19" t="str">
         <f t="shared" si="9"/>
@@ -5614,44 +5530,44 @@
         <v/>
       </c>
       <c r="AF95" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH95" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A96" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H96" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K96" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N96" s="19"/>
       <c r="P96" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R96" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S96" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V96" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W96" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X96" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y96" s="19" t="str">
         <f t="shared" si="9"/>
@@ -5662,38 +5578,38 @@
         <v/>
       </c>
       <c r="AE96" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG96" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH96" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A97" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H97" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N97" s="19"/>
       <c r="O97" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R97" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="W97" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X97" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y97" s="19" t="str">
         <f t="shared" si="9"/>
@@ -5706,36 +5622,36 @@
     </row>
     <row r="98" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A98" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F98" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H98" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N98" s="19"/>
       <c r="P98" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R98" s="15" t="str">
         <f t="shared" si="8"/>
         <v>x</v>
       </c>
       <c r="S98" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U98" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W98" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X98" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y98" s="19" t="str">
         <f t="shared" si="9"/>
@@ -5746,92 +5662,92 @@
         <v/>
       </c>
       <c r="AE98" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF98" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH98" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A99" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H99" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N99" s="19"/>
       <c r="O99" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R99" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S99" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U99" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y99" s="19" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA99" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB99" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC99" s="19" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD99" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF99" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH99" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A100" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M100" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N100" s="19"/>
       <c r="O100" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R100" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S100" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V100" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W100" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X100" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y100" s="19" t="str">
         <f t="shared" si="9"/>
@@ -5842,27 +5758,27 @@
         <v/>
       </c>
       <c r="AE100" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF100" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH100" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A101" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J101" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L101" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N101" s="19"/>
       <c r="R101" s="15" t="str">
@@ -5870,10 +5786,10 @@
         <v>x</v>
       </c>
       <c r="W101" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X101" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y101" s="19" t="str">
         <f t="shared" si="9"/>
@@ -5884,86 +5800,86 @@
         <v/>
       </c>
       <c r="AE101" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A102" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H102" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L102" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N102" s="19"/>
       <c r="O102" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R102" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S102" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U102" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W102" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X102" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y102" s="19" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z102" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC102" s="19" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AH102" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A103" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L103" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N103" s="19"/>
       <c r="O103" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R103" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T103" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U103" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W103" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X103" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y103" s="19" t="str">
         <f t="shared" si="9"/>
@@ -5974,89 +5890,89 @@
         <v/>
       </c>
       <c r="AE103" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG103" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A104" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H104" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N104" s="19"/>
       <c r="O104" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R104" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S104" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U104" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W104" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X104" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y104" s="19" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z104" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA104" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB104" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC104" s="19" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD104" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH104" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A105" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F105" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N105" s="19"/>
       <c r="O105" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R105" s="15" t="str">
         <f t="shared" si="8"/>
         <v>x</v>
       </c>
       <c r="S105" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V105" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y105" s="19" t="str">
         <f t="shared" si="9"/>
@@ -6067,38 +5983,38 @@
         <v/>
       </c>
       <c r="AH105" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A106" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N106" s="19"/>
       <c r="O106" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R106" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S106" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U106" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W106" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X106" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y106" s="19" t="str">
         <f t="shared" si="9"/>
@@ -6109,101 +6025,101 @@
         <v/>
       </c>
       <c r="AE106" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF106" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH106" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A107" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H107" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N107" s="19"/>
       <c r="O107" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R107" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S107" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U107" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W107" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X107" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y107" s="19" t="str">
         <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="AA107" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB107" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC107" s="19" t="str">
         <f t="shared" si="10"/>
         <v>x</v>
       </c>
       <c r="AD107" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE107" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH107" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A108" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F108" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H108" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N108" s="19"/>
       <c r="O108" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R108" s="15" t="str">
         <f t="shared" si="8"/>
         <v>x</v>
       </c>
       <c r="S108" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U108" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W108" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X108" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y108" s="19" t="str">
         <f t="shared" si="9"/>
@@ -6214,38 +6130,38 @@
         <v/>
       </c>
       <c r="AE108" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF108" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH108" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A109" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M109" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N109" s="19"/>
       <c r="O109" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R109" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T109" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V109" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y109" s="19" t="str">
         <f t="shared" si="9"/>
@@ -6258,27 +6174,27 @@
     </row>
     <row r="110" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A110" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M110" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N110" s="19"/>
       <c r="O110" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R110" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T110" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V110" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y110" s="19" t="str">
         <f t="shared" si="9"/>
@@ -6291,13 +6207,13 @@
     </row>
     <row r="111" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A111" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J111" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N111" s="19"/>
       <c r="R111" s="15" t="str">
@@ -6315,15 +6231,15 @@
     </row>
     <row r="112" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A112" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B112" s="15" t="s">
         <v>123</v>
-      </c>
-      <c r="B112" s="15" t="s">
-        <v>124</v>
       </c>
       <c r="C112" s="21"/>
       <c r="D112" s="21"/>
       <c r="E112" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F112" s="21"/>
       <c r="G112" s="21"/>
@@ -6335,39 +6251,39 @@
       <c r="M112" s="21"/>
       <c r="N112" s="19"/>
       <c r="O112" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R112" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="W112" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X112" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y112" s="19" t="str">
         <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="Z112" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC112" s="19" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AE112" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A113" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C113" s="21"/>
       <c r="D113" s="21"/>
@@ -6377,23 +6293,23 @@
       <c r="H113" s="21"/>
       <c r="I113" s="21"/>
       <c r="J113" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K113" s="21"/>
       <c r="L113" s="21"/>
       <c r="M113" s="21"/>
       <c r="N113" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R113" s="15" t="str">
         <f t="shared" si="8"/>
         <v>x</v>
       </c>
       <c r="W113" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X113" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y113" s="19" t="str">
         <f t="shared" si="9"/>
@@ -6404,15 +6320,15 @@
         <v/>
       </c>
       <c r="AE113" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A114" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C114" s="21"/>
       <c r="D114" s="21"/>
@@ -6422,23 +6338,23 @@
       <c r="H114" s="21"/>
       <c r="I114" s="21"/>
       <c r="J114" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K114" s="21"/>
       <c r="L114" s="21"/>
       <c r="M114" s="21"/>
       <c r="N114" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R114" s="15" t="str">
         <f t="shared" si="8"/>
         <v>x</v>
       </c>
       <c r="W114" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X114" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y114" s="19" t="str">
         <f t="shared" si="9"/>
@@ -6449,15 +6365,15 @@
         <v/>
       </c>
       <c r="AE114" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A115" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B115" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C115" s="23"/>
       <c r="D115" s="23"/>
@@ -6467,13 +6383,13 @@
       <c r="H115" s="23"/>
       <c r="I115" s="23"/>
       <c r="J115" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K115" s="23"/>
       <c r="L115" s="23"/>
       <c r="M115" s="23"/>
       <c r="N115" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O115" s="22"/>
       <c r="P115" s="22"/>
@@ -6502,10 +6418,10 @@
     </row>
     <row r="116" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A116" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C116" s="21"/>
       <c r="D116" s="21"/>
@@ -6515,7 +6431,7 @@
       <c r="H116" s="21"/>
       <c r="I116" s="21"/>
       <c r="J116" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K116" s="21"/>
       <c r="L116" s="21"/>
@@ -6526,10 +6442,10 @@
         <v>x</v>
       </c>
       <c r="W116" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X116" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y116" s="19" t="str">
         <f t="shared" si="9"/>
@@ -6540,20 +6456,20 @@
         <v/>
       </c>
       <c r="AE116" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A117" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C117" s="21"/>
       <c r="D117" s="21"/>
       <c r="E117" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F117" s="21"/>
       <c r="G117" s="21"/>
@@ -6565,23 +6481,23 @@
       <c r="M117" s="21"/>
       <c r="N117" s="19"/>
       <c r="P117" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R117" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S117" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U117" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W117" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X117" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y117" s="19" t="str">
         <f t="shared" si="9"/>
@@ -6592,22 +6508,22 @@
         <v/>
       </c>
       <c r="AE117" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH117" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A118" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C118" s="21"/>
       <c r="D118" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E118" s="21"/>
       <c r="F118" s="21"/>
@@ -6620,23 +6536,23 @@
       <c r="M118" s="21"/>
       <c r="N118" s="19"/>
       <c r="O118" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R118" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S118" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V118" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W118" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X118" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y118" s="19" t="str">
         <f t="shared" si="9"/>
@@ -6647,22 +6563,22 @@
         <v/>
       </c>
       <c r="AE118" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG118" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A119" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C119" s="21"/>
       <c r="D119" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E119" s="21"/>
       <c r="F119" s="21"/>
@@ -6675,17 +6591,17 @@
       <c r="M119" s="21"/>
       <c r="N119" s="19"/>
       <c r="O119" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R119" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S119" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V119" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y119" s="19" t="str">
         <f t="shared" si="9"/>
@@ -6696,19 +6612,19 @@
         <v/>
       </c>
       <c r="AG119" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" spans="1:34" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A120" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B120" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C120" s="23"/>
       <c r="D120" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E120" s="23"/>
       <c r="F120" s="23"/>
@@ -6721,7 +6637,7 @@
       <c r="M120" s="23"/>
       <c r="N120" s="19"/>
       <c r="O120" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P120" s="22"/>
       <c r="R120" s="15" t="str">
@@ -6729,12 +6645,12 @@
         <v/>
       </c>
       <c r="S120" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T120" s="22"/>
       <c r="U120" s="22"/>
       <c r="V120" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W120" s="22"/>
       <c r="X120" s="22"/>
@@ -6751,33 +6667,33 @@
       </c>
       <c r="AD120" s="22"/>
       <c r="AG120" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A121" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C121" s="21"/>
       <c r="D121" s="21"/>
       <c r="E121" s="21"/>
       <c r="F121" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G121" s="21"/>
       <c r="H121" s="21"/>
       <c r="I121" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J121" s="21"/>
       <c r="K121" s="21"/>
       <c r="L121" s="21"/>
       <c r="M121" s="21"/>
       <c r="N121" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O121" s="22"/>
       <c r="R121" s="15" t="str">
@@ -6785,10 +6701,10 @@
         <v>x</v>
       </c>
       <c r="S121" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V121" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y121" s="19" t="str">
         <f t="shared" si="9"/>
@@ -6799,38 +6715,38 @@
         <v/>
       </c>
       <c r="AF121" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A122" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B122" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="B122" s="15" t="s">
-        <v>135</v>
-      </c>
       <c r="D122" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N122" s="19"/>
       <c r="O122" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R122" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T122" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U122" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W122" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X122" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y122" s="19" t="str">
         <f t="shared" si="9"/>
@@ -6843,29 +6759,29 @@
     </row>
     <row r="123" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A123" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H123" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J123" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N123" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R123" s="15" t="str">
         <f t="shared" si="8"/>
         <v>x</v>
       </c>
       <c r="W123" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X123" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y123" s="19" t="str">
         <f t="shared" si="9"/>
@@ -6876,105 +6792,105 @@
         <v/>
       </c>
       <c r="AE123" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A124" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G124" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N124" s="19"/>
       <c r="Q124" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R124" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S124" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U124" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y124" s="19" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA124" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB124" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC124" s="19" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD124" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH124" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A125" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E125" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N125" s="19"/>
       <c r="Q125" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R125" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S125" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U125" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W125" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X125" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y125" s="19" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z125" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC125" s="19" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AH125" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A126" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C126" s="15"/>
       <c r="D126" s="15"/>
@@ -6985,66 +6901,66 @@
       <c r="I126" s="15"/>
       <c r="J126" s="15"/>
       <c r="K126" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L126" s="15"/>
       <c r="M126" s="15"/>
       <c r="N126" s="19"/>
       <c r="O126" s="17"/>
       <c r="P126" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R126" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S126" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U126" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W126" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X126" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y126" s="19" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z126" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA126" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB126" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC126" s="19" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AF126" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH126" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A127" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B127" s="15" t="s">
         <v>138</v>
-      </c>
-      <c r="B127" s="15" t="s">
-        <v>139</v>
       </c>
       <c r="C127" s="15"/>
       <c r="D127" s="15"/>
       <c r="E127" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F127" s="15"/>
       <c r="G127" s="15"/>
@@ -7052,45 +6968,45 @@
       <c r="I127" s="15"/>
       <c r="J127" s="15"/>
       <c r="K127" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L127" s="15"/>
       <c r="M127" s="15"/>
       <c r="N127" s="19"/>
       <c r="Q127" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R127" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="W127" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X127" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y127" s="19" t="str">
         <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="Z127" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC127" s="19" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AE127" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A128" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C128" s="15"/>
       <c r="D128" s="15"/>
@@ -7101,29 +7017,29 @@
       <c r="I128" s="15"/>
       <c r="J128" s="15"/>
       <c r="K128" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L128" s="15"/>
       <c r="M128" s="15"/>
       <c r="N128" s="19"/>
       <c r="O128" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R128" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S128" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U128" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W128" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X128" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y128" s="19" t="str">
         <f t="shared" si="9"/>
@@ -7134,18 +7050,18 @@
         <v/>
       </c>
       <c r="AE128" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG128" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="129" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A129" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C129" s="15"/>
       <c r="D129" s="15"/>
@@ -7155,13 +7071,13 @@
       <c r="H129" s="15"/>
       <c r="I129" s="15"/>
       <c r="J129" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K129" s="15"/>
       <c r="L129" s="15"/>
       <c r="M129" s="15"/>
       <c r="N129" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R129" s="15" t="str">
         <f t="shared" si="8"/>
@@ -7178,10 +7094,10 @@
     </row>
     <row r="130" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A130" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C130" s="15"/>
       <c r="D130" s="15"/>
@@ -7191,13 +7107,13 @@
       <c r="H130" s="15"/>
       <c r="I130" s="15"/>
       <c r="J130" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K130" s="15"/>
       <c r="L130" s="15"/>
       <c r="M130" s="15"/>
       <c r="N130" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R130" s="15" t="str">
         <f t="shared" si="8"/>
@@ -7214,15 +7130,15 @@
     </row>
     <row r="131" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A131" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C131" s="15"/>
       <c r="D131" s="15"/>
       <c r="E131" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F131" s="15"/>
       <c r="G131" s="15"/>
@@ -7234,53 +7150,53 @@
       <c r="M131" s="15"/>
       <c r="N131" s="19"/>
       <c r="O131" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R131" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S131" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V131" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W131" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X131" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y131" s="19" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z131" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC131" s="19" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AF131" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH131" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="132" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A132" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C132" s="15"/>
       <c r="D132" s="15"/>
       <c r="E132" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F132" s="15"/>
       <c r="G132" s="15"/>
@@ -7292,42 +7208,42 @@
       <c r="M132" s="15"/>
       <c r="N132" s="19"/>
       <c r="O132" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R132" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S132" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V132" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W132" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y132" s="19" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z132" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC132" s="19" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AF132" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="133" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A133" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C133" s="15"/>
       <c r="D133" s="15"/>
@@ -7340,21 +7256,21 @@
       <c r="K133" s="15"/>
       <c r="L133" s="15"/>
       <c r="M133" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N133" s="19"/>
       <c r="O133" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R133" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T133" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V133" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y133" s="19" t="str">
         <f t="shared" si="9"/>
@@ -7367,10 +7283,10 @@
     </row>
     <row r="134" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A134" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C134" s="15"/>
       <c r="D134" s="15"/>
@@ -7380,23 +7296,23 @@
       <c r="H134" s="15"/>
       <c r="I134" s="15"/>
       <c r="J134" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K134" s="15"/>
       <c r="L134" s="15"/>
       <c r="M134" s="15"/>
       <c r="N134" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R134" s="15" t="str">
         <f t="shared" si="8"/>
         <v>x</v>
       </c>
       <c r="W134" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X134" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y134" s="19" t="str">
         <f t="shared" si="9"/>
@@ -7407,20 +7323,20 @@
         <v/>
       </c>
       <c r="AE134" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="135" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A135" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
       <c r="E135" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F135" s="15"/>
       <c r="G135" s="15"/>
@@ -7432,50 +7348,50 @@
       <c r="M135" s="15"/>
       <c r="N135" s="19"/>
       <c r="O135" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R135" s="15" t="str">
         <f t="shared" ref="R135:R157" si="11" xml:space="preserve"> IF(OR(F135="x", J135="x"),"x", "")</f>
         <v/>
       </c>
       <c r="S135" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U135" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W135" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X135" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y135" s="19" t="str">
         <f t="shared" ref="Y135:Y157" si="12" xml:space="preserve"> IF(AND($AE135="x", W135="x"), "x","")</f>
         <v/>
       </c>
       <c r="Z135" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC135" s="19" t="str">
         <f t="shared" ref="AC135:AC157" si="13" xml:space="preserve"> IF(AND($AE135="x", AA135="x"), "x","")</f>
         <v/>
       </c>
       <c r="AF135" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="136" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A136" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C136" s="15"/>
       <c r="D136" s="15"/>
       <c r="E136" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F136" s="15"/>
       <c r="G136" s="15"/>
@@ -7487,30 +7403,30 @@
       <c r="M136" s="15"/>
       <c r="N136" s="19"/>
       <c r="O136" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R136" s="15" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="T136" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U136" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W136" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X136" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y136" s="19" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Z136" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC136" s="19" t="str">
         <f t="shared" si="13"/>
@@ -7519,15 +7435,15 @@
     </row>
     <row r="137" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A137" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C137" s="15"/>
       <c r="D137" s="15"/>
       <c r="E137" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F137" s="15"/>
       <c r="G137" s="15"/>
@@ -7539,30 +7455,30 @@
       <c r="M137" s="15"/>
       <c r="N137" s="19"/>
       <c r="O137" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R137" s="15" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="T137" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U137" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W137" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X137" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y137" s="19" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Z137" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC137" s="19" t="str">
         <f t="shared" si="13"/>
@@ -7571,15 +7487,15 @@
     </row>
     <row r="138" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A138" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C138" s="15"/>
       <c r="D138" s="15"/>
       <c r="E138" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F138" s="15"/>
       <c r="G138" s="15"/>
@@ -7591,47 +7507,47 @@
       <c r="M138" s="15"/>
       <c r="N138" s="19"/>
       <c r="O138" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R138" s="15" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="S138" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U138" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W138" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y138" s="19" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Z138" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC138" s="19" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AH138" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="139" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A139" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C139" s="15"/>
       <c r="D139" s="15"/>
       <c r="E139" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F139" s="15"/>
       <c r="G139" s="15"/>
@@ -7643,23 +7559,23 @@
       <c r="M139" s="15"/>
       <c r="N139" s="19"/>
       <c r="O139" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R139" s="15" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="T139" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U139" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W139" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X139" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y139" s="19" t="str">
         <f t="shared" si="12"/>
@@ -7670,15 +7586,15 @@
         <v/>
       </c>
       <c r="AE139" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="140" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A140" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B140" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C140" s="15"/>
       <c r="D140" s="15"/>
@@ -7688,51 +7604,51 @@
       <c r="H140" s="15"/>
       <c r="I140" s="15"/>
       <c r="J140" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K140" s="15"/>
       <c r="L140" s="15"/>
       <c r="M140" s="15"/>
       <c r="N140" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R140" s="15" t="str">
         <f t="shared" si="11"/>
         <v>x</v>
       </c>
       <c r="W140" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X140" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y140" s="19" t="str">
         <f t="shared" si="12"/>
         <v>x</v>
       </c>
       <c r="Z140" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA140" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC140" s="19" t="str">
         <f t="shared" si="13"/>
         <v>x</v>
       </c>
       <c r="AD140" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE140" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="141" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A141" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C141" s="15"/>
       <c r="D141" s="15"/>
@@ -7742,7 +7658,7 @@
       <c r="H141" s="15"/>
       <c r="I141" s="15"/>
       <c r="J141" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K141" s="15"/>
       <c r="L141" s="15"/>
@@ -7763,10 +7679,10 @@
     </row>
     <row r="142" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A142" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C142" s="15"/>
       <c r="D142" s="15"/>
@@ -7776,7 +7692,7 @@
       <c r="H142" s="15"/>
       <c r="I142" s="15"/>
       <c r="J142" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K142" s="15"/>
       <c r="L142" s="15"/>
@@ -7797,10 +7713,10 @@
     </row>
     <row r="143" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A143" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C143" s="15"/>
       <c r="D143" s="15"/>
@@ -7810,7 +7726,7 @@
       <c r="H143" s="15"/>
       <c r="I143" s="15"/>
       <c r="J143" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K143" s="15"/>
       <c r="L143" s="15"/>
@@ -7831,10 +7747,10 @@
     </row>
     <row r="144" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A144" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C144" s="15"/>
       <c r="D144" s="15"/>
@@ -7844,7 +7760,7 @@
       <c r="H144" s="15"/>
       <c r="I144" s="15"/>
       <c r="J144" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K144" s="15"/>
       <c r="L144" s="15"/>
@@ -7865,10 +7781,10 @@
     </row>
     <row r="145" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A145" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C145" s="15"/>
       <c r="D145" s="15"/>
@@ -7883,17 +7799,17 @@
       <c r="M145" s="15"/>
       <c r="N145" s="19"/>
       <c r="O145" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R145" s="15" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W145" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X145" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y145" s="19" t="str">
         <f t="shared" si="12"/>
@@ -7904,20 +7820,20 @@
         <v/>
       </c>
       <c r="AE145" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="146" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A146" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C146" s="15"/>
       <c r="D146" s="15"/>
       <c r="E146" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F146" s="15"/>
       <c r="G146" s="15"/>
@@ -7929,17 +7845,17 @@
       <c r="M146" s="15"/>
       <c r="N146" s="19"/>
       <c r="Q146" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R146" s="15" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W146" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X146" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y146" s="19" t="str">
         <f t="shared" si="12"/>
@@ -7950,15 +7866,15 @@
         <v/>
       </c>
       <c r="AE146" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="147" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A147" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B147" s="22" t="s">
         <v>159</v>
-      </c>
-      <c r="B147" s="22" t="s">
-        <v>160</v>
       </c>
       <c r="C147" s="22"/>
       <c r="D147" s="22"/>
@@ -7968,13 +7884,13 @@
       <c r="H147" s="15"/>
       <c r="I147" s="15"/>
       <c r="J147" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K147" s="15"/>
       <c r="L147" s="15"/>
       <c r="M147" s="15"/>
       <c r="N147" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O147" s="17"/>
       <c r="R147" s="15" t="str">
@@ -7982,37 +7898,37 @@
         <v>x</v>
       </c>
       <c r="T147" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U147" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y147" s="19" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AA147" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC147" s="19" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AD147" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="148" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A148" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C148" s="15"/>
       <c r="D148" s="15"/>
       <c r="E148" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F148" s="15"/>
       <c r="G148" s="15"/>
@@ -8025,17 +7941,17 @@
       <c r="N148" s="19"/>
       <c r="O148" s="17"/>
       <c r="P148" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R148" s="15" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W148" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X148" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y148" s="19" t="str">
         <f t="shared" si="12"/>
@@ -8048,13 +7964,13 @@
     </row>
     <row r="149" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A149" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B149" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C149" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D149" s="22"/>
       <c r="E149" s="15"/>
@@ -8068,23 +7984,23 @@
       <c r="M149" s="15"/>
       <c r="N149" s="19"/>
       <c r="O149" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R149" s="15" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="S149" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U149" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W149" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X149" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y149" s="19" t="str">
         <f t="shared" si="12"/>
@@ -8095,21 +8011,21 @@
         <v/>
       </c>
       <c r="AE149" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH149" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="150" spans="1:34" s="27" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A150" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B150" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J150" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N150" s="19"/>
       <c r="O150" s="17"/>
@@ -8118,10 +8034,10 @@
         <v>x</v>
       </c>
       <c r="W150" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X150" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y150" s="19" t="str">
         <f t="shared" si="12"/>
@@ -8134,10 +8050,10 @@
     </row>
     <row r="151" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A151" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B151" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C151" s="22"/>
       <c r="D151" s="22"/>
@@ -8147,13 +8063,13 @@
       <c r="H151" s="15"/>
       <c r="I151" s="15"/>
       <c r="J151" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K151" s="15"/>
       <c r="L151" s="15"/>
       <c r="M151" s="15"/>
       <c r="N151" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R151" s="15" t="str">
         <f t="shared" si="11"/>
@@ -8170,10 +8086,10 @@
     </row>
     <row r="152" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A152" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B152" s="15" t="s">
         <v>165</v>
-      </c>
-      <c r="B152" s="15" t="s">
-        <v>166</v>
       </c>
       <c r="C152" s="15"/>
       <c r="D152" s="15"/>
@@ -8186,11 +8102,11 @@
       <c r="K152" s="15"/>
       <c r="L152" s="15"/>
       <c r="M152" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N152" s="19"/>
       <c r="O152" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P152" s="17"/>
       <c r="Q152" s="17"/>
@@ -8199,11 +8115,11 @@
         <v/>
       </c>
       <c r="T152" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U152" s="17"/>
       <c r="V152" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y152" s="19" t="str">
         <f t="shared" si="12"/>
@@ -8216,10 +8132,10 @@
     </row>
     <row r="153" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A153" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B153" s="15" t="s">
         <v>167</v>
-      </c>
-      <c r="B153" s="15" t="s">
-        <v>168</v>
       </c>
       <c r="C153" s="15"/>
       <c r="D153" s="15"/>
@@ -8229,13 +8145,13 @@
       <c r="H153" s="15"/>
       <c r="I153" s="15"/>
       <c r="J153" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K153" s="15"/>
       <c r="L153" s="15"/>
       <c r="M153" s="15"/>
       <c r="N153" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R153" s="15" t="str">
         <f t="shared" si="11"/>
@@ -8252,10 +8168,10 @@
     </row>
     <row r="154" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A154" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C154" s="15"/>
       <c r="D154" s="15"/>
@@ -8265,13 +8181,13 @@
       <c r="H154" s="15"/>
       <c r="I154" s="15"/>
       <c r="J154" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K154" s="15"/>
       <c r="L154" s="15"/>
       <c r="M154" s="15"/>
       <c r="N154" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R154" s="15" t="str">
         <f t="shared" si="11"/>
@@ -8288,13 +8204,13 @@
     </row>
     <row r="155" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A155" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C155" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D155" s="15"/>
       <c r="E155" s="15"/>
@@ -8304,56 +8220,56 @@
       <c r="I155" s="15"/>
       <c r="J155" s="15"/>
       <c r="K155" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L155" s="15"/>
       <c r="M155" s="15"/>
       <c r="O155" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R155" s="15" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="S155" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V155" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W155" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X155" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y155" s="19" t="str">
         <f t="shared" si="12"/>
         <v>x</v>
       </c>
       <c r="AB155" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC155" s="19" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AE155" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF155" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH155" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="156" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A156" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C156" s="15"/>
       <c r="D156" s="15"/>
@@ -8363,13 +8279,13 @@
       <c r="H156" s="15"/>
       <c r="I156" s="15"/>
       <c r="J156" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K156" s="15"/>
       <c r="L156" s="15"/>
       <c r="M156" s="15"/>
       <c r="N156" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R156" s="15" t="str">
         <f t="shared" si="11"/>
@@ -8386,10 +8302,10 @@
     </row>
     <row r="157" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A157" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C157" s="15"/>
       <c r="D157" s="15"/>
@@ -8399,23 +8315,23 @@
       <c r="H157" s="15"/>
       <c r="I157" s="15"/>
       <c r="J157" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K157" s="15"/>
       <c r="L157" s="15"/>
       <c r="M157" s="15"/>
       <c r="N157" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R157" s="15" t="str">
         <f t="shared" si="11"/>
         <v>x</v>
       </c>
       <c r="W157" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X157" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y157" s="19" t="str">
         <f t="shared" si="12"/>
@@ -8426,7 +8342,7 @@
         <v/>
       </c>
       <c r="AE157" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="158" spans="1:34" x14ac:dyDescent="0.75">
@@ -8668,6 +8584,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S2:V2"/>
     <mergeCell ref="W2:Z2"/>
     <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="AF2:AH2"/>
@@ -8684,31 +8602,29 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S2:V2"/>
   </mergeCells>
   <conditionalFormatting sqref="W2 N4:N5 C2:M5 O2:V5 AE2:AE5 W3:AD5 AF3:AH3">
-    <cfRule type="expression" dxfId="16" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula xml:space="preserve"> OR(#REF!="x",#REF!="x", #REF!="x",#REF!="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3 Z3:AB3 AD3 AF3:AH3">
-    <cfRule type="expression" dxfId="15" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula xml:space="preserve"> OR(#REF!="x",#REF!="x", #REF!="x",#REF!="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2">
-    <cfRule type="expression" dxfId="14" priority="5">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula xml:space="preserve"> OR(#REF!="x",#REF!="x", #REF!="x",#REF!="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF4:AH4">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula xml:space="preserve"> OR(#REF!="x",#REF!="x", #REF!="x",#REF!="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF5:AH5">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula xml:space="preserve"> OR(#REF!="x",#REF!="x", #REF!="x",#REF!="x")</formula>
     </cfRule>
   </conditionalFormatting>
